--- a/SiteCategoryOperation/ツール専用サイトカテゴリ設計書.xlsx
+++ b/SiteCategoryOperation/ツール専用サイトカテゴリ設計書.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="89">
   <si>
     <t>文書ＩＤ：</t>
     <rPh sb="0" eb="2">
@@ -557,6 +557,10 @@
   </si>
   <si>
     <t>Shift_JIS</t>
+  </si>
+  <si>
+    <t>utf-8x</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -1357,29 +1361,29 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1548,7 +1552,7 @@
         <xdr:cNvPr id="2" name="Text Box 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1609,7 +1613,7 @@
         <xdr:cNvPr id="3" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1965,544 +1969,521 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="58"/>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
+      <c r="A1" s="57"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="58"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="58"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
+      <c r="A4" s="57"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="58"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="58"/>
+      <c r="A5" s="57"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
     </row>
     <row r="6" spans="1:14" ht="33">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="57"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="64"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="59"/>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59"/>
+      <c r="A7" s="63"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="63"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="58"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="58"/>
-      <c r="N8" s="58"/>
+      <c r="A8" s="57"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="58"/>
-      <c r="B9" s="58"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58"/>
+      <c r="A9" s="57"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="58"/>
-      <c r="B10" s="58"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="58"/>
+      <c r="A10" s="57"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="57"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="58"/>
-      <c r="B11" s="58"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="58"/>
+      <c r="A11" s="57"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="57"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="58"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="58"/>
+      <c r="A12" s="57"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="57"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="58"/>
-      <c r="B13" s="58"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="58"/>
+      <c r="A13" s="57"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="57"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="58"/>
-      <c r="B14" s="58"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="58"/>
-      <c r="N14" s="58"/>
+      <c r="A14" s="57"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="57"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="58"/>
-      <c r="B15" s="58"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="58"/>
-      <c r="N15" s="58"/>
+      <c r="A15" s="57"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="57"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="58"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="58"/>
-      <c r="M16" s="58"/>
-      <c r="N16" s="58"/>
+      <c r="A16" s="57"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="57"/>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="58"/>
-      <c r="B17" s="58"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="58"/>
-      <c r="N17" s="58"/>
+      <c r="A17" s="57"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="57"/>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="58"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="58"/>
-      <c r="N18" s="58"/>
+      <c r="A18" s="57"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="57"/>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="58"/>
-      <c r="B19" s="58"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="58"/>
-      <c r="M19" s="58"/>
-      <c r="N19" s="58"/>
+      <c r="A19" s="57"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="57"/>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="58"/>
-      <c r="B20" s="58"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="58"/>
-      <c r="L20" s="58"/>
-      <c r="M20" s="58"/>
-      <c r="N20" s="58"/>
+      <c r="A20" s="57"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="57"/>
     </row>
     <row r="21" spans="1:14">
-      <c r="I21" s="60" t="s">
+      <c r="I21" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="J21" s="60"/>
-      <c r="K21" s="60"/>
-      <c r="L21" s="61"/>
-      <c r="M21" s="61"/>
-      <c r="N21" s="61"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="58"/>
+      <c r="M21" s="58"/>
+      <c r="N21" s="58"/>
     </row>
     <row r="22" spans="1:14">
-      <c r="I22" s="60" t="s">
+      <c r="I22" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="J22" s="60"/>
-      <c r="K22" s="60"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="59"/>
       <c r="L22" s="62"/>
       <c r="M22" s="62"/>
       <c r="N22" s="62"/>
     </row>
     <row r="23" spans="1:14">
-      <c r="I23" s="60" t="s">
+      <c r="I23" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="J23" s="60"/>
-      <c r="K23" s="60"/>
-      <c r="L23" s="63" t="s">
+      <c r="J23" s="59"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="M23" s="63"/>
-      <c r="N23" s="63"/>
+      <c r="M23" s="61"/>
+      <c r="N23" s="61"/>
     </row>
     <row r="24" spans="1:14">
-      <c r="I24" s="60"/>
-      <c r="J24" s="60"/>
-      <c r="K24" s="60"/>
-      <c r="L24" s="61"/>
-      <c r="M24" s="61"/>
-      <c r="N24" s="61"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="58"/>
+      <c r="M24" s="58"/>
+      <c r="N24" s="58"/>
     </row>
     <row r="25" spans="1:14">
-      <c r="I25" s="60"/>
-      <c r="J25" s="60"/>
-      <c r="K25" s="60"/>
-      <c r="L25" s="61"/>
-      <c r="M25" s="61"/>
-      <c r="N25" s="61"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="59"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="58"/>
+      <c r="M25" s="58"/>
+      <c r="N25" s="58"/>
     </row>
     <row r="26" spans="1:14">
-      <c r="I26" s="60"/>
-      <c r="J26" s="60"/>
-      <c r="K26" s="60"/>
-      <c r="L26" s="61"/>
-      <c r="M26" s="61"/>
-      <c r="N26" s="61"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="59"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="58"/>
+      <c r="M26" s="58"/>
+      <c r="N26" s="58"/>
     </row>
     <row r="27" spans="1:14">
-      <c r="I27" s="60" t="s">
+      <c r="I27" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="J27" s="60"/>
-      <c r="K27" s="60"/>
-      <c r="L27" s="64">
+      <c r="J27" s="59"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="60">
         <f>変更履歴!C4</f>
         <v>43441</v>
       </c>
-      <c r="M27" s="61"/>
-      <c r="N27" s="61"/>
+      <c r="M27" s="58"/>
+      <c r="N27" s="58"/>
     </row>
     <row r="28" spans="1:14">
-      <c r="I28" s="60" t="s">
+      <c r="I28" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="J28" s="60"/>
-      <c r="K28" s="60"/>
-      <c r="L28" s="64">
+      <c r="J28" s="59"/>
+      <c r="K28" s="59"/>
+      <c r="L28" s="60">
         <f>IF(MAX(変更履歴!C9:C28)=0,"",MAX(変更履歴!C9:C28))</f>
         <v>43441</v>
       </c>
-      <c r="M28" s="61"/>
-      <c r="N28" s="61"/>
+      <c r="M28" s="58"/>
+      <c r="N28" s="58"/>
     </row>
     <row r="29" spans="1:14">
-      <c r="I29" s="61"/>
-      <c r="J29" s="61"/>
-      <c r="K29" s="61"/>
-      <c r="L29" s="61"/>
-      <c r="M29" s="61"/>
-      <c r="N29" s="61"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="58"/>
+      <c r="L29" s="58"/>
+      <c r="M29" s="58"/>
+      <c r="N29" s="58"/>
     </row>
     <row r="30" spans="1:14">
-      <c r="I30" s="61"/>
-      <c r="J30" s="61"/>
-      <c r="K30" s="61"/>
-      <c r="L30" s="61"/>
-      <c r="M30" s="61"/>
-      <c r="N30" s="61"/>
+      <c r="I30" s="58"/>
+      <c r="J30" s="58"/>
+      <c r="K30" s="58"/>
+      <c r="L30" s="58"/>
+      <c r="M30" s="58"/>
+      <c r="N30" s="58"/>
     </row>
     <row r="31" spans="1:14">
-      <c r="I31" s="61"/>
-      <c r="J31" s="61"/>
-      <c r="K31" s="61"/>
-      <c r="L31" s="61"/>
-      <c r="M31" s="61"/>
-      <c r="N31" s="61"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="58"/>
+      <c r="K31" s="58"/>
+      <c r="L31" s="58"/>
+      <c r="M31" s="58"/>
+      <c r="N31" s="58"/>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="58"/>
-      <c r="B32" s="58"/>
-      <c r="C32" s="58"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="58"/>
-      <c r="I32" s="58"/>
-      <c r="J32" s="58"/>
-      <c r="K32" s="58"/>
-      <c r="L32" s="58"/>
-      <c r="M32" s="58"/>
-      <c r="N32" s="58"/>
+      <c r="A32" s="57"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="57"/>
+      <c r="L32" s="57"/>
+      <c r="M32" s="57"/>
+      <c r="N32" s="57"/>
     </row>
     <row r="33" spans="1:14">
-      <c r="A33" s="58"/>
-      <c r="B33" s="58"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="58"/>
-      <c r="H33" s="58"/>
-      <c r="I33" s="58"/>
-      <c r="J33" s="58"/>
-      <c r="K33" s="58"/>
-      <c r="L33" s="58"/>
-      <c r="M33" s="58"/>
-      <c r="N33" s="58"/>
+      <c r="A33" s="57"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="57"/>
+      <c r="J33" s="57"/>
+      <c r="K33" s="57"/>
+      <c r="L33" s="57"/>
+      <c r="M33" s="57"/>
+      <c r="N33" s="57"/>
     </row>
     <row r="34" spans="1:14">
-      <c r="A34" s="58"/>
-      <c r="B34" s="58"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="58"/>
-      <c r="I34" s="58"/>
-      <c r="J34" s="58"/>
-      <c r="K34" s="58"/>
-      <c r="L34" s="58"/>
-      <c r="M34" s="58"/>
-      <c r="N34" s="58"/>
+      <c r="A34" s="57"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="57"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="57"/>
+      <c r="M34" s="57"/>
+      <c r="N34" s="57"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="A35" s="58"/>
-      <c r="B35" s="58"/>
-      <c r="C35" s="58"/>
-      <c r="D35" s="58"/>
-      <c r="E35" s="58"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="58"/>
-      <c r="H35" s="58"/>
-      <c r="I35" s="58"/>
-      <c r="J35" s="58"/>
-      <c r="K35" s="58"/>
-      <c r="L35" s="58"/>
-      <c r="M35" s="58"/>
-      <c r="N35" s="58"/>
+      <c r="A35" s="57"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="57"/>
+      <c r="J35" s="57"/>
+      <c r="K35" s="57"/>
+      <c r="L35" s="57"/>
+      <c r="M35" s="57"/>
+      <c r="N35" s="57"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="58"/>
-      <c r="B36" s="58"/>
-      <c r="C36" s="58"/>
-      <c r="D36" s="58"/>
-      <c r="E36" s="58"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="58"/>
-      <c r="H36" s="58"/>
-      <c r="I36" s="58"/>
-      <c r="J36" s="58"/>
-      <c r="K36" s="58"/>
-      <c r="L36" s="58"/>
-      <c r="M36" s="58"/>
-      <c r="N36" s="58"/>
+      <c r="A36" s="57"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="57"/>
+      <c r="J36" s="57"/>
+      <c r="K36" s="57"/>
+      <c r="L36" s="57"/>
+      <c r="M36" s="57"/>
+      <c r="N36" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="A32:N32"/>
-    <mergeCell ref="A33:N33"/>
-    <mergeCell ref="A34:N34"/>
-    <mergeCell ref="A35:N35"/>
-    <mergeCell ref="A36:N36"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="L31:N31"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="A19:N19"/>
-    <mergeCell ref="A20:N20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="A6:N6"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A3:N3"/>
+    <mergeCell ref="A4:N4"/>
+    <mergeCell ref="A5:N5"/>
     <mergeCell ref="A18:N18"/>
     <mergeCell ref="A7:N7"/>
     <mergeCell ref="A8:N8"/>
@@ -2515,12 +2496,35 @@
     <mergeCell ref="A15:N15"/>
     <mergeCell ref="A16:N16"/>
     <mergeCell ref="A17:N17"/>
-    <mergeCell ref="A6:N6"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="A3:N3"/>
-    <mergeCell ref="A4:N4"/>
-    <mergeCell ref="A5:N5"/>
+    <mergeCell ref="A19:N19"/>
+    <mergeCell ref="A20:N20"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="A32:N32"/>
+    <mergeCell ref="A33:N33"/>
+    <mergeCell ref="A34:N34"/>
+    <mergeCell ref="A35:N35"/>
+    <mergeCell ref="A36:N36"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -2764,7 +2768,7 @@
   <dimension ref="A1:AC62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="33.6" customHeight="1"/>
@@ -3163,7 +3167,7 @@
         <v>79</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H13" s="22" t="s">
         <v>80</v>
@@ -4949,13 +4953,13 @@
       <formula1>"none"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H13:H62">
-      <formula1>"general,resource"</formula1>
+      <formula1>"general,resource,blank"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F13:F19">
       <formula1>"none"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I13:I62">
-      <formula1>"N/D,SELF"</formula1>
+      <formula1>"N/D,SELF,SUB"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5730,17 +5734,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
     <mergeCell ref="A4:L9"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:H2"/>
     <mergeCell ref="A3:L3"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6329,17 +6333,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="C11:C12"/>
     <mergeCell ref="A4:J9"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="C11:C12"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SiteCategoryOperation/ツール専用サイトカテゴリ設計書.xlsx
+++ b/SiteCategoryOperation/ツール専用サイトカテゴリ設計書.xlsx
@@ -15,11 +15,12 @@
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
     <sheet name="変更履歴" sheetId="3" r:id="rId2"/>
     <sheet name="サイトカテゴリ設計" sheetId="1" r:id="rId3"/>
-    <sheet name="メタ情報設定値一覧" sheetId="4" r:id="rId4"/>
+    <sheet name="メタ情報設定値一覧" sheetId="6" r:id="rId4"/>
     <sheet name="コンテンツ読込設定" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_Regression_X" localSheetId="4" hidden="1">#REF!</definedName>
+    <definedName name="_Regression_X" localSheetId="3" hidden="1">#REF!</definedName>
     <definedName name="_Regression_X" localSheetId="0" hidden="1">#REF!</definedName>
     <definedName name="_Regression_X" hidden="1">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$N$30</definedName>
@@ -27,6 +28,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">変更履歴!$8:$8</definedName>
     <definedName name="Z_A6798B76_D810_406B_AC87_27BAA2D06CD7_.wvu.PrintArea" localSheetId="0" hidden="1">表紙!$A$1:$AY$80</definedName>
     <definedName name="関連表" localSheetId="4" hidden="1">#REF!</definedName>
+    <definedName name="関連表" localSheetId="3" hidden="1">#REF!</definedName>
     <definedName name="関連表" localSheetId="0" hidden="1">#REF!</definedName>
     <definedName name="関連表" hidden="1">#REF!</definedName>
   </definedNames>
@@ -46,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="111">
   <si>
     <t>文書ＩＤ：</t>
     <rPh sb="0" eb="2">
@@ -457,14 +459,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ID</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>タイプ</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>メタ情報名</t>
     <rPh sb="2" eb="4">
       <t>ジョウホウ</t>
@@ -560,6 +554,113 @@
   </si>
   <si>
     <t>utf-8x</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>カテゴリID</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>タイプ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>文字列</t>
+    <rPh sb="0" eb="3">
+      <t>モジレツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>meta01</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>テスト</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ブーリアン</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>meta02</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>cat03</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>文字列②</t>
+    <rPh sb="0" eb="3">
+      <t>モジレツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>meta03</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>LongString</t>
+  </si>
+  <si>
+    <t>テスティング</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>テンプレート</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>種別
+(リスト/ストーリ)</t>
+    <rPh sb="0" eb="2">
+      <t>シュベツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>テンプレート名</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>配布ファイル名</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>サイトカテゴリID</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>読込を行う
+コンテンツカテゴリ名</t>
+    <rPh sb="15" eb="16">
+      <t>メイ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -685,7 +786,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -1171,6 +1272,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1189,7 +1349,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1266,9 +1426,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1361,6 +1518,27 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1478,28 +1656,61 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1969,512 +2180,512 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="57"/>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
+      <c r="A1" s="63"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="57"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57"/>
+      <c r="A3" s="63"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="57"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
+      <c r="A4" s="63"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="57"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="57"/>
-      <c r="N5" s="57"/>
+      <c r="A5" s="63"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="63"/>
     </row>
     <row r="6" spans="1:14" ht="33">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
-      <c r="N6" s="64"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
+      <c r="N6" s="70"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="63"/>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63"/>
-      <c r="L7" s="63"/>
-      <c r="M7" s="63"/>
-      <c r="N7" s="63"/>
+      <c r="A7" s="69"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="69"/>
+      <c r="N7" s="69"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="57"/>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
+      <c r="A8" s="63"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="63"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="63"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="57"/>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="57"/>
+      <c r="A9" s="63"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="63"/>
+      <c r="N9" s="63"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="57"/>
-      <c r="B10" s="57"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="57"/>
+      <c r="A10" s="63"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="63"/>
+      <c r="N10" s="63"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="57"/>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="57"/>
+      <c r="A11" s="63"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="63"/>
+      <c r="N11" s="63"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="57"/>
-      <c r="B12" s="57"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="57"/>
-      <c r="N12" s="57"/>
+      <c r="A12" s="63"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="63"/>
+      <c r="N12" s="63"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="57"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="57"/>
+      <c r="A13" s="63"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="63"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="57"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="57"/>
+      <c r="A14" s="63"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="63"/>
+      <c r="N14" s="63"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="57"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="57"/>
+      <c r="A15" s="63"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="63"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="57"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="57"/>
+      <c r="A16" s="63"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="63"/>
+      <c r="N16" s="63"/>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="57"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="57"/>
+      <c r="A17" s="63"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="63"/>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="57"/>
-      <c r="B18" s="57"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="57"/>
-      <c r="N18" s="57"/>
+      <c r="A18" s="63"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="63"/>
+      <c r="M18" s="63"/>
+      <c r="N18" s="63"/>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="57"/>
-      <c r="B19" s="57"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="57"/>
-      <c r="N19" s="57"/>
+      <c r="A19" s="63"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="63"/>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="57"/>
-      <c r="B20" s="57"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="57"/>
-      <c r="N20" s="57"/>
+      <c r="A20" s="63"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="63"/>
+      <c r="L20" s="63"/>
+      <c r="M20" s="63"/>
+      <c r="N20" s="63"/>
     </row>
     <row r="21" spans="1:14">
-      <c r="I21" s="59" t="s">
+      <c r="I21" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="58"/>
-      <c r="M21" s="58"/>
-      <c r="N21" s="58"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="65"/>
+      <c r="L21" s="64"/>
+      <c r="M21" s="64"/>
+      <c r="N21" s="64"/>
     </row>
     <row r="22" spans="1:14">
-      <c r="I22" s="59" t="s">
+      <c r="I22" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="J22" s="59"/>
-      <c r="K22" s="59"/>
-      <c r="L22" s="62"/>
-      <c r="M22" s="62"/>
-      <c r="N22" s="62"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="68"/>
+      <c r="M22" s="68"/>
+      <c r="N22" s="68"/>
     </row>
     <row r="23" spans="1:14">
-      <c r="I23" s="59" t="s">
+      <c r="I23" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="J23" s="59"/>
-      <c r="K23" s="59"/>
-      <c r="L23" s="61" t="s">
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="M23" s="61"/>
-      <c r="N23" s="61"/>
+      <c r="M23" s="67"/>
+      <c r="N23" s="67"/>
     </row>
     <row r="24" spans="1:14">
-      <c r="I24" s="59"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="59"/>
-      <c r="L24" s="58"/>
-      <c r="M24" s="58"/>
-      <c r="N24" s="58"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="64"/>
+      <c r="M24" s="64"/>
+      <c r="N24" s="64"/>
     </row>
     <row r="25" spans="1:14">
-      <c r="I25" s="59"/>
-      <c r="J25" s="59"/>
-      <c r="K25" s="59"/>
-      <c r="L25" s="58"/>
-      <c r="M25" s="58"/>
-      <c r="N25" s="58"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="65"/>
+      <c r="K25" s="65"/>
+      <c r="L25" s="64"/>
+      <c r="M25" s="64"/>
+      <c r="N25" s="64"/>
     </row>
     <row r="26" spans="1:14">
-      <c r="I26" s="59"/>
-      <c r="J26" s="59"/>
-      <c r="K26" s="59"/>
-      <c r="L26" s="58"/>
-      <c r="M26" s="58"/>
-      <c r="N26" s="58"/>
+      <c r="I26" s="65"/>
+      <c r="J26" s="65"/>
+      <c r="K26" s="65"/>
+      <c r="L26" s="64"/>
+      <c r="M26" s="64"/>
+      <c r="N26" s="64"/>
     </row>
     <row r="27" spans="1:14">
-      <c r="I27" s="59" t="s">
+      <c r="I27" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="J27" s="59"/>
-      <c r="K27" s="59"/>
-      <c r="L27" s="60">
+      <c r="J27" s="65"/>
+      <c r="K27" s="65"/>
+      <c r="L27" s="66">
         <f>変更履歴!C4</f>
         <v>43441</v>
       </c>
-      <c r="M27" s="58"/>
-      <c r="N27" s="58"/>
+      <c r="M27" s="64"/>
+      <c r="N27" s="64"/>
     </row>
     <row r="28" spans="1:14">
-      <c r="I28" s="59" t="s">
+      <c r="I28" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="J28" s="59"/>
-      <c r="K28" s="59"/>
-      <c r="L28" s="60">
+      <c r="J28" s="65"/>
+      <c r="K28" s="65"/>
+      <c r="L28" s="66">
         <f>IF(MAX(変更履歴!C9:C28)=0,"",MAX(変更履歴!C9:C28))</f>
         <v>43441</v>
       </c>
-      <c r="M28" s="58"/>
-      <c r="N28" s="58"/>
+      <c r="M28" s="64"/>
+      <c r="N28" s="64"/>
     </row>
     <row r="29" spans="1:14">
-      <c r="I29" s="58"/>
-      <c r="J29" s="58"/>
-      <c r="K29" s="58"/>
-      <c r="L29" s="58"/>
-      <c r="M29" s="58"/>
-      <c r="N29" s="58"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="64"/>
+      <c r="K29" s="64"/>
+      <c r="L29" s="64"/>
+      <c r="M29" s="64"/>
+      <c r="N29" s="64"/>
     </row>
     <row r="30" spans="1:14">
-      <c r="I30" s="58"/>
-      <c r="J30" s="58"/>
-      <c r="K30" s="58"/>
-      <c r="L30" s="58"/>
-      <c r="M30" s="58"/>
-      <c r="N30" s="58"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="64"/>
+      <c r="K30" s="64"/>
+      <c r="L30" s="64"/>
+      <c r="M30" s="64"/>
+      <c r="N30" s="64"/>
     </row>
     <row r="31" spans="1:14">
-      <c r="I31" s="58"/>
-      <c r="J31" s="58"/>
-      <c r="K31" s="58"/>
-      <c r="L31" s="58"/>
-      <c r="M31" s="58"/>
-      <c r="N31" s="58"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="64"/>
+      <c r="K31" s="64"/>
+      <c r="L31" s="64"/>
+      <c r="M31" s="64"/>
+      <c r="N31" s="64"/>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="57"/>
-      <c r="B32" s="57"/>
-      <c r="C32" s="57"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="57"/>
-      <c r="J32" s="57"/>
-      <c r="K32" s="57"/>
-      <c r="L32" s="57"/>
-      <c r="M32" s="57"/>
-      <c r="N32" s="57"/>
+      <c r="A32" s="63"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="63"/>
+      <c r="L32" s="63"/>
+      <c r="M32" s="63"/>
+      <c r="N32" s="63"/>
     </row>
     <row r="33" spans="1:14">
-      <c r="A33" s="57"/>
-      <c r="B33" s="57"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="57"/>
-      <c r="J33" s="57"/>
-      <c r="K33" s="57"/>
-      <c r="L33" s="57"/>
-      <c r="M33" s="57"/>
-      <c r="N33" s="57"/>
+      <c r="A33" s="63"/>
+      <c r="B33" s="63"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="63"/>
+      <c r="L33" s="63"/>
+      <c r="M33" s="63"/>
+      <c r="N33" s="63"/>
     </row>
     <row r="34" spans="1:14">
-      <c r="A34" s="57"/>
-      <c r="B34" s="57"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="57"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="57"/>
-      <c r="J34" s="57"/>
-      <c r="K34" s="57"/>
-      <c r="L34" s="57"/>
-      <c r="M34" s="57"/>
-      <c r="N34" s="57"/>
+      <c r="A34" s="63"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="63"/>
+      <c r="K34" s="63"/>
+      <c r="L34" s="63"/>
+      <c r="M34" s="63"/>
+      <c r="N34" s="63"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="A35" s="57"/>
-      <c r="B35" s="57"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="57"/>
-      <c r="J35" s="57"/>
-      <c r="K35" s="57"/>
-      <c r="L35" s="57"/>
-      <c r="M35" s="57"/>
-      <c r="N35" s="57"/>
+      <c r="A35" s="63"/>
+      <c r="B35" s="63"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="63"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="63"/>
+      <c r="J35" s="63"/>
+      <c r="K35" s="63"/>
+      <c r="L35" s="63"/>
+      <c r="M35" s="63"/>
+      <c r="N35" s="63"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="57"/>
-      <c r="B36" s="57"/>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="57"/>
-      <c r="J36" s="57"/>
-      <c r="K36" s="57"/>
-      <c r="L36" s="57"/>
-      <c r="M36" s="57"/>
-      <c r="N36" s="57"/>
+      <c r="A36" s="63"/>
+      <c r="B36" s="63"/>
+      <c r="C36" s="63"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="63"/>
+      <c r="F36" s="63"/>
+      <c r="G36" s="63"/>
+      <c r="H36" s="63"/>
+      <c r="I36" s="63"/>
+      <c r="J36" s="63"/>
+      <c r="K36" s="63"/>
+      <c r="L36" s="63"/>
+      <c r="M36" s="63"/>
+      <c r="N36" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="47">
@@ -2765,10 +2976,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AC62"/>
+  <dimension ref="A1:AF62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y17" sqref="Y17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="33.6" customHeight="1"/>
@@ -2784,370 +2995,387 @@
     <col min="10" max="10" width="9.625" style="19" customWidth="1"/>
     <col min="11" max="11" width="13.375" style="19" bestFit="1" customWidth="1"/>
     <col min="12" max="20" width="16.625" style="19" customWidth="1"/>
-    <col min="21" max="23" width="16" style="19" customWidth="1"/>
-    <col min="24" max="25" width="8.875" style="19"/>
-    <col min="26" max="26" width="13.125" style="19" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="8.875" style="19"/>
+    <col min="21" max="26" width="16" style="19" customWidth="1"/>
+    <col min="27" max="28" width="8.875" style="19"/>
+    <col min="29" max="29" width="13.125" style="19" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="8.875" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="16.5">
-      <c r="A1" s="77" t="s">
+    <row r="1" spans="1:32" ht="16.5">
+      <c r="A1" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="89" t="s">
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="55" t="s">
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="P1" s="55" t="s">
+      <c r="P1" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="Q1" s="55" t="s">
+      <c r="Q1" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="R1" s="33" t="s">
+      <c r="R1" s="32" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A2" s="68" t="s">
+    <row r="2" spans="1:32" ht="17.25" thickBot="1">
+      <c r="A2" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="92" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="34">
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="33">
         <v>43441</v>
       </c>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="54"/>
-    </row>
-    <row r="3" spans="1:29" ht="16.5">
-      <c r="A3" s="79" t="s">
+      <c r="Q2" s="33"/>
+      <c r="R2" s="53"/>
+    </row>
+    <row r="3" spans="1:32" ht="16.5">
+      <c r="A3" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="80"/>
-      <c r="N3" s="80"/>
-      <c r="O3" s="80"/>
-      <c r="P3" s="80"/>
-      <c r="Q3" s="80"/>
-      <c r="R3" s="81"/>
-    </row>
-    <row r="4" spans="1:29" ht="16.5">
-      <c r="A4" s="65"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="66"/>
-      <c r="Q4" s="66"/>
-      <c r="R4" s="67"/>
-    </row>
-    <row r="5" spans="1:29" ht="16.5">
-      <c r="A5" s="65"/>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="66"/>
-      <c r="M5" s="66"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="67"/>
-    </row>
-    <row r="6" spans="1:29" ht="16.5">
-      <c r="A6" s="65"/>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="66"/>
-      <c r="O6" s="66"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="66"/>
-      <c r="R6" s="67"/>
-    </row>
-    <row r="7" spans="1:29" ht="16.5">
-      <c r="A7" s="65"/>
-      <c r="B7" s="66"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
-      <c r="L7" s="66"/>
-      <c r="M7" s="66"/>
-      <c r="N7" s="66"/>
-      <c r="O7" s="66"/>
-      <c r="P7" s="66"/>
-      <c r="Q7" s="66"/>
-      <c r="R7" s="67"/>
-    </row>
-    <row r="8" spans="1:29" ht="16.5">
-      <c r="A8" s="65"/>
-      <c r="B8" s="66"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="66"/>
-      <c r="L8" s="66"/>
-      <c r="M8" s="66"/>
-      <c r="N8" s="66"/>
-      <c r="O8" s="66"/>
-      <c r="P8" s="66"/>
-      <c r="Q8" s="66"/>
-      <c r="R8" s="67"/>
-    </row>
-    <row r="9" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A9" s="68"/>
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="69"/>
-      <c r="M9" s="69"/>
-      <c r="N9" s="69"/>
-      <c r="O9" s="69"/>
-      <c r="P9" s="69"/>
-      <c r="Q9" s="69"/>
-      <c r="R9" s="70"/>
-    </row>
-    <row r="10" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A10" s="86" t="s">
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="86"/>
+      <c r="O3" s="86"/>
+      <c r="P3" s="86"/>
+      <c r="Q3" s="86"/>
+      <c r="R3" s="87"/>
+    </row>
+    <row r="4" spans="1:32" ht="16.5">
+      <c r="A4" s="71"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="72"/>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="72"/>
+      <c r="R4" s="73"/>
+    </row>
+    <row r="5" spans="1:32" ht="16.5">
+      <c r="A5" s="71"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="73"/>
+    </row>
+    <row r="6" spans="1:32" ht="16.5">
+      <c r="A6" s="71"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="72"/>
+      <c r="Q6" s="72"/>
+      <c r="R6" s="73"/>
+    </row>
+    <row r="7" spans="1:32" ht="16.5">
+      <c r="A7" s="71"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="72"/>
+      <c r="N7" s="72"/>
+      <c r="O7" s="72"/>
+      <c r="P7" s="72"/>
+      <c r="Q7" s="72"/>
+      <c r="R7" s="73"/>
+    </row>
+    <row r="8" spans="1:32" ht="16.5">
+      <c r="A8" s="71"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
+      <c r="N8" s="72"/>
+      <c r="O8" s="72"/>
+      <c r="P8" s="72"/>
+      <c r="Q8" s="72"/>
+      <c r="R8" s="73"/>
+    </row>
+    <row r="9" spans="1:32" ht="17.25" thickBot="1">
+      <c r="A9" s="74"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="75"/>
+      <c r="L9" s="75"/>
+      <c r="M9" s="75"/>
+      <c r="N9" s="75"/>
+      <c r="O9" s="75"/>
+      <c r="P9" s="75"/>
+      <c r="Q9" s="75"/>
+      <c r="R9" s="76"/>
+    </row>
+    <row r="10" spans="1:32" ht="17.25" thickBot="1">
+      <c r="A10" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="87"/>
-      <c r="C10" s="87"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="87"/>
-      <c r="K10" s="87"/>
-      <c r="L10" s="87"/>
-      <c r="M10" s="87"/>
-      <c r="N10" s="87"/>
-      <c r="O10" s="87"/>
-      <c r="P10" s="87"/>
-      <c r="Q10" s="87"/>
-      <c r="R10" s="87"/>
-      <c r="S10" s="87"/>
-      <c r="T10" s="87"/>
-      <c r="U10" s="87"/>
-      <c r="V10" s="87"/>
-      <c r="W10" s="88"/>
-      <c r="X10" s="71" t="s">
+      <c r="B10" s="93"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="93"/>
+      <c r="J10" s="93"/>
+      <c r="K10" s="93"/>
+      <c r="L10" s="93"/>
+      <c r="M10" s="93"/>
+      <c r="N10" s="93"/>
+      <c r="O10" s="93"/>
+      <c r="P10" s="93"/>
+      <c r="Q10" s="93"/>
+      <c r="R10" s="93"/>
+      <c r="S10" s="93"/>
+      <c r="T10" s="93"/>
+      <c r="U10" s="93"/>
+      <c r="V10" s="93"/>
+      <c r="W10" s="94"/>
+      <c r="X10" s="115"/>
+      <c r="Y10" s="115"/>
+      <c r="Z10" s="115"/>
+      <c r="AA10" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="Y10" s="71"/>
-      <c r="Z10" s="71"/>
-      <c r="AA10" s="71"/>
-      <c r="AB10" s="71"/>
-      <c r="AC10" s="72"/>
-    </row>
-    <row r="11" spans="1:29" s="20" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A11" s="84" t="s">
+      <c r="AB10" s="77"/>
+      <c r="AC10" s="77"/>
+      <c r="AD10" s="77"/>
+      <c r="AE10" s="77"/>
+      <c r="AF10" s="78"/>
+    </row>
+    <row r="11" spans="1:32" s="20" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A11" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="95" t="s">
+      <c r="B11" s="101" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="82" t="s">
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="M11" s="82"/>
-      <c r="N11" s="82"/>
-      <c r="O11" s="82"/>
-      <c r="P11" s="82"/>
-      <c r="Q11" s="82"/>
-      <c r="R11" s="82"/>
-      <c r="S11" s="82"/>
-      <c r="T11" s="82"/>
-      <c r="U11" s="82" t="s">
+      <c r="M11" s="88"/>
+      <c r="N11" s="88"/>
+      <c r="O11" s="88"/>
+      <c r="P11" s="88"/>
+      <c r="Q11" s="88"/>
+      <c r="R11" s="88"/>
+      <c r="S11" s="88"/>
+      <c r="T11" s="88"/>
+      <c r="U11" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="V11" s="82"/>
-      <c r="W11" s="83"/>
-      <c r="X11" s="73" t="s">
+      <c r="V11" s="88"/>
+      <c r="W11" s="89"/>
+      <c r="X11" s="116" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y11" s="117"/>
+      <c r="Z11" s="118"/>
+      <c r="AA11" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="Y11" s="74"/>
-      <c r="Z11" s="75" t="s">
+      <c r="AB11" s="80"/>
+      <c r="AC11" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="AA11" s="31"/>
-      <c r="AB11" s="31"/>
-      <c r="AC11" s="32"/>
-    </row>
-    <row r="12" spans="1:29" s="20" customFormat="1" ht="33.75" thickBot="1">
-      <c r="A12" s="85"/>
-      <c r="B12" s="56" t="s">
+      <c r="AD11" s="30"/>
+      <c r="AE11" s="30"/>
+      <c r="AF11" s="31"/>
+    </row>
+    <row r="12" spans="1:32" s="20" customFormat="1" ht="33.75" thickBot="1">
+      <c r="A12" s="91"/>
+      <c r="B12" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="56" t="s">
-        <v>84</v>
-      </c>
-      <c r="D12" s="56" t="s">
-        <v>85</v>
-      </c>
-      <c r="E12" s="56" t="s">
+      <c r="C12" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="56" t="s">
+      <c r="F12" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="56" t="s">
+      <c r="G12" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="H12" s="56" t="s">
+      <c r="H12" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="I12" s="56" t="s">
+      <c r="I12" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="J12" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="K12" s="56" t="s">
+      <c r="J12" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="K12" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="L12" s="56" t="s">
+      <c r="L12" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="M12" s="56" t="s">
+      <c r="M12" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="56" t="s">
+      <c r="N12" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="O12" s="56" t="s">
+      <c r="O12" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="P12" s="56" t="s">
+      <c r="P12" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="Q12" s="56" t="s">
+      <c r="Q12" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="R12" s="56" t="s">
+      <c r="R12" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="S12" s="56" t="s">
+      <c r="S12" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="T12" s="56" t="s">
+      <c r="T12" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="U12" s="56">
+      <c r="U12" s="55">
         <v>1</v>
       </c>
-      <c r="V12" s="26">
+      <c r="V12" s="25">
         <v>2</v>
       </c>
-      <c r="W12" s="30">
+      <c r="W12" s="29">
         <v>3</v>
       </c>
-      <c r="X12" s="29" t="s">
+      <c r="X12" s="119" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y12" s="120" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z12" s="120" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA12" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="Y12" s="56" t="s">
+      <c r="AB12" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="Z12" s="76"/>
-      <c r="AA12" s="27"/>
-      <c r="AB12" s="27"/>
-      <c r="AC12" s="28"/>
-    </row>
-    <row r="13" spans="1:29" ht="33.6" customHeight="1">
+      <c r="AC12" s="82"/>
+      <c r="AD12" s="26"/>
+      <c r="AE12" s="26"/>
+      <c r="AF12" s="27"/>
+    </row>
+    <row r="13" spans="1:32" ht="33.6" customHeight="1">
       <c r="A13" s="22">
         <v>1</v>
       </c>
@@ -3155,31 +3383,31 @@
         <v>50</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E13" s="22">
         <v>5</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H13" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="I13" s="22" t="s">
         <v>80</v>
-      </c>
-      <c r="I13" s="22" t="s">
-        <v>82</v>
       </c>
       <c r="J13" s="22">
         <v>0</v>
       </c>
       <c r="K13" s="22" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L13" s="23" t="s">
         <v>57</v>
@@ -3194,16 +3422,19 @@
       <c r="T13" s="24"/>
       <c r="U13" s="24"/>
       <c r="V13" s="24"/>
-      <c r="W13" s="24"/>
-      <c r="X13" s="24"/>
+      <c r="W13" s="113"/>
+      <c r="X13" s="111"/>
       <c r="Y13" s="24"/>
       <c r="Z13" s="24"/>
       <c r="AA13" s="24"/>
       <c r="AB13" s="24"/>
       <c r="AC13" s="24"/>
-    </row>
-    <row r="14" spans="1:29" ht="33.6" customHeight="1">
-      <c r="A14" s="52">
+      <c r="AD13" s="24"/>
+      <c r="AE13" s="24"/>
+      <c r="AF13" s="24"/>
+    </row>
+    <row r="14" spans="1:32" ht="33.6" customHeight="1">
+      <c r="A14" s="51">
         <v>2</v>
       </c>
       <c r="B14" s="22" t="s">
@@ -3215,22 +3446,22 @@
         <v>5</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H14" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="I14" s="22" t="s">
         <v>80</v>
-      </c>
-      <c r="I14" s="22" t="s">
-        <v>82</v>
       </c>
       <c r="J14" s="22">
         <v>0</v>
       </c>
       <c r="K14" s="22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L14" s="23"/>
       <c r="M14" s="23" t="s">
@@ -3245,16 +3476,19 @@
       <c r="T14" s="21"/>
       <c r="U14" s="21"/>
       <c r="V14" s="21"/>
-      <c r="W14" s="21"/>
-      <c r="X14" s="21"/>
+      <c r="W14" s="114"/>
+      <c r="X14" s="112"/>
       <c r="Y14" s="21"/>
       <c r="Z14" s="21"/>
       <c r="AA14" s="21"/>
       <c r="AB14" s="21"/>
       <c r="AC14" s="21"/>
-    </row>
-    <row r="15" spans="1:29" ht="33.6" customHeight="1">
-      <c r="A15" s="52">
+      <c r="AD14" s="21"/>
+      <c r="AE14" s="21"/>
+      <c r="AF14" s="21"/>
+    </row>
+    <row r="15" spans="1:32" ht="33.6" customHeight="1">
+      <c r="A15" s="51">
         <v>3</v>
       </c>
       <c r="B15" s="22" t="s">
@@ -3266,28 +3500,28 @@
         <v>5</v>
       </c>
       <c r="F15" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="G15" s="22" t="s">
-        <v>81</v>
-      </c>
       <c r="H15" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="I15" s="22" t="s">
         <v>80</v>
-      </c>
-      <c r="I15" s="22" t="s">
-        <v>82</v>
       </c>
       <c r="J15" s="22">
         <v>0</v>
       </c>
       <c r="K15" s="22" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L15" s="21"/>
       <c r="M15" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="N15" s="35"/>
+      <c r="N15" s="34"/>
       <c r="O15" s="21"/>
       <c r="P15" s="21"/>
       <c r="Q15" s="21"/>
@@ -3296,16 +3530,19 @@
       <c r="T15" s="21"/>
       <c r="U15" s="21"/>
       <c r="V15" s="21"/>
-      <c r="W15" s="21"/>
-      <c r="X15" s="21"/>
+      <c r="W15" s="114"/>
+      <c r="X15" s="112"/>
       <c r="Y15" s="21"/>
       <c r="Z15" s="21"/>
       <c r="AA15" s="21"/>
       <c r="AB15" s="21"/>
       <c r="AC15" s="21"/>
-    </row>
-    <row r="16" spans="1:29" ht="33.6" customHeight="1">
-      <c r="A16" s="52">
+      <c r="AD15" s="21"/>
+      <c r="AE15" s="21"/>
+      <c r="AF15" s="21"/>
+    </row>
+    <row r="16" spans="1:32" ht="33.6" customHeight="1">
+      <c r="A16" s="51">
         <v>4</v>
       </c>
       <c r="B16" s="22" t="s">
@@ -3317,29 +3554,29 @@
         <v>5</v>
       </c>
       <c r="F16" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="G16" s="22" t="s">
-        <v>81</v>
-      </c>
       <c r="H16" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="I16" s="22" t="s">
         <v>80</v>
-      </c>
-      <c r="I16" s="22" t="s">
-        <v>82</v>
       </c>
       <c r="J16" s="22">
         <v>0</v>
       </c>
       <c r="K16" s="22" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L16" s="21"/>
       <c r="M16" s="21"/>
       <c r="N16" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="O16" s="35"/>
+      <c r="O16" s="34"/>
       <c r="P16" s="21"/>
       <c r="Q16" s="21"/>
       <c r="R16" s="21"/>
@@ -3347,16 +3584,19 @@
       <c r="T16" s="21"/>
       <c r="U16" s="21"/>
       <c r="V16" s="21"/>
-      <c r="W16" s="21"/>
-      <c r="X16" s="21"/>
+      <c r="W16" s="114"/>
+      <c r="X16" s="112"/>
       <c r="Y16" s="21"/>
       <c r="Z16" s="21"/>
       <c r="AA16" s="21"/>
       <c r="AB16" s="21"/>
       <c r="AC16" s="21"/>
-    </row>
-    <row r="17" spans="1:29" ht="33.6" customHeight="1">
-      <c r="A17" s="52">
+      <c r="AD16" s="21"/>
+      <c r="AE16" s="21"/>
+      <c r="AF16" s="21"/>
+    </row>
+    <row r="17" spans="1:32" ht="33.6" customHeight="1">
+      <c r="A17" s="51">
         <v>5</v>
       </c>
       <c r="B17" s="22" t="s">
@@ -3368,46 +3608,49 @@
         <v>5</v>
       </c>
       <c r="F17" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="G17" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="G17" s="22" t="s">
-        <v>81</v>
-      </c>
       <c r="H17" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="I17" s="22" t="s">
         <v>80</v>
-      </c>
-      <c r="I17" s="22" t="s">
-        <v>82</v>
       </c>
       <c r="J17" s="22">
         <v>0</v>
       </c>
       <c r="K17" s="22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L17" s="23"/>
       <c r="M17" s="23" t="s">
         <v>61</v>
       </c>
       <c r="N17" s="21"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
       <c r="Q17" s="21"/>
       <c r="R17" s="21"/>
       <c r="S17" s="21"/>
       <c r="T17" s="21"/>
       <c r="U17" s="21"/>
       <c r="V17" s="21"/>
-      <c r="W17" s="21"/>
-      <c r="X17" s="21"/>
+      <c r="W17" s="114"/>
+      <c r="X17" s="112"/>
       <c r="Y17" s="21"/>
       <c r="Z17" s="21"/>
       <c r="AA17" s="21"/>
       <c r="AB17" s="21"/>
       <c r="AC17" s="21"/>
-    </row>
-    <row r="18" spans="1:29" ht="33.6" customHeight="1">
-      <c r="A18" s="52">
+      <c r="AD17" s="21"/>
+      <c r="AE17" s="21"/>
+      <c r="AF17" s="21"/>
+    </row>
+    <row r="18" spans="1:32" ht="33.6" customHeight="1">
+      <c r="A18" s="51">
         <v>6</v>
       </c>
       <c r="B18" s="22" t="s">
@@ -3419,22 +3662,22 @@
         <v>5</v>
       </c>
       <c r="F18" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="G18" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="G18" s="22" t="s">
-        <v>81</v>
-      </c>
       <c r="H18" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="I18" s="22" t="s">
         <v>80</v>
-      </c>
-      <c r="I18" s="22" t="s">
-        <v>82</v>
       </c>
       <c r="J18" s="22">
         <v>0</v>
       </c>
       <c r="K18" s="22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L18" s="23"/>
       <c r="M18" s="23"/>
@@ -3443,22 +3686,25 @@
       </c>
       <c r="O18" s="21"/>
       <c r="P18" s="21"/>
-      <c r="Q18" s="35"/>
+      <c r="Q18" s="34"/>
       <c r="R18" s="21"/>
       <c r="S18" s="21"/>
       <c r="T18" s="21"/>
       <c r="U18" s="21"/>
       <c r="V18" s="21"/>
-      <c r="W18" s="21"/>
-      <c r="X18" s="21"/>
+      <c r="W18" s="114"/>
+      <c r="X18" s="112"/>
       <c r="Y18" s="21"/>
       <c r="Z18" s="21"/>
       <c r="AA18" s="21"/>
       <c r="AB18" s="21"/>
       <c r="AC18" s="21"/>
-    </row>
-    <row r="19" spans="1:29" ht="33.6" customHeight="1">
-      <c r="A19" s="52">
+      <c r="AD18" s="21"/>
+      <c r="AE18" s="21"/>
+      <c r="AF18" s="21"/>
+    </row>
+    <row r="19" spans="1:32" ht="33.6" customHeight="1">
+      <c r="A19" s="51">
         <v>7</v>
       </c>
       <c r="B19" s="22" t="s">
@@ -3470,46 +3716,49 @@
         <v>5</v>
       </c>
       <c r="F19" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="G19" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="G19" s="22" t="s">
+      <c r="H19" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="I19" s="22" t="s">
         <v>81</v>
-      </c>
-      <c r="H19" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="I19" s="22" t="s">
-        <v>83</v>
       </c>
       <c r="J19" s="22">
         <v>0</v>
       </c>
       <c r="K19" s="22" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L19" s="21"/>
       <c r="M19" s="23"/>
-      <c r="N19" s="35"/>
+      <c r="N19" s="34"/>
       <c r="O19" s="23" t="s">
         <v>63</v>
       </c>
       <c r="P19" s="21"/>
       <c r="Q19" s="21"/>
-      <c r="R19" s="35"/>
+      <c r="R19" s="34"/>
       <c r="S19" s="21"/>
       <c r="T19" s="21"/>
       <c r="U19" s="21"/>
       <c r="V19" s="21"/>
-      <c r="W19" s="21"/>
-      <c r="X19" s="21"/>
+      <c r="W19" s="114"/>
+      <c r="X19" s="112"/>
       <c r="Y19" s="21"/>
       <c r="Z19" s="21"/>
       <c r="AA19" s="21"/>
       <c r="AB19" s="21"/>
       <c r="AC19" s="21"/>
-    </row>
-    <row r="20" spans="1:29" ht="33.6" customHeight="1">
-      <c r="A20" s="52">
+      <c r="AD19" s="21"/>
+      <c r="AE19" s="21"/>
+      <c r="AF19" s="21"/>
+    </row>
+    <row r="20" spans="1:32" ht="33.6" customHeight="1">
+      <c r="A20" s="51">
         <v>8</v>
       </c>
       <c r="B20" s="22"/>
@@ -3524,25 +3773,28 @@
       <c r="K20" s="22"/>
       <c r="L20" s="21"/>
       <c r="M20" s="21"/>
-      <c r="N20" s="35"/>
+      <c r="N20" s="34"/>
       <c r="O20" s="21"/>
       <c r="P20" s="21"/>
       <c r="Q20" s="21"/>
       <c r="R20" s="21"/>
-      <c r="S20" s="35"/>
+      <c r="S20" s="34"/>
       <c r="T20" s="21"/>
       <c r="U20" s="21"/>
       <c r="V20" s="21"/>
-      <c r="W20" s="21"/>
-      <c r="X20" s="21"/>
+      <c r="W20" s="114"/>
+      <c r="X20" s="112"/>
       <c r="Y20" s="21"/>
       <c r="Z20" s="21"/>
       <c r="AA20" s="21"/>
       <c r="AB20" s="21"/>
       <c r="AC20" s="21"/>
-    </row>
-    <row r="21" spans="1:29" ht="33.6" customHeight="1">
-      <c r="A21" s="52">
+      <c r="AD20" s="21"/>
+      <c r="AE20" s="21"/>
+      <c r="AF20" s="21"/>
+    </row>
+    <row r="21" spans="1:32" ht="33.6" customHeight="1">
+      <c r="A21" s="51">
         <v>9</v>
       </c>
       <c r="B21" s="22"/>
@@ -3556,26 +3808,29 @@
       <c r="J21" s="22"/>
       <c r="K21" s="22"/>
       <c r="L21" s="21"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="35"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="34"/>
       <c r="O21" s="21"/>
       <c r="P21" s="21"/>
       <c r="Q21" s="21"/>
       <c r="R21" s="21"/>
       <c r="S21" s="21"/>
-      <c r="T21" s="35"/>
+      <c r="T21" s="34"/>
       <c r="U21" s="21"/>
       <c r="V21" s="21"/>
-      <c r="W21" s="21"/>
-      <c r="X21" s="21"/>
+      <c r="W21" s="114"/>
+      <c r="X21" s="112"/>
       <c r="Y21" s="21"/>
       <c r="Z21" s="21"/>
       <c r="AA21" s="21"/>
       <c r="AB21" s="21"/>
       <c r="AC21" s="21"/>
-    </row>
-    <row r="22" spans="1:29" ht="33.6" customHeight="1">
-      <c r="A22" s="52">
+      <c r="AD21" s="21"/>
+      <c r="AE21" s="21"/>
+      <c r="AF21" s="21"/>
+    </row>
+    <row r="22" spans="1:32" ht="33.6" customHeight="1">
+      <c r="A22" s="51">
         <v>10</v>
       </c>
       <c r="B22" s="22"/>
@@ -3590,8 +3845,8 @@
       <c r="K22" s="22"/>
       <c r="L22" s="21"/>
       <c r="M22" s="21"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
+      <c r="N22" s="34"/>
+      <c r="O22" s="34"/>
       <c r="P22" s="21"/>
       <c r="Q22" s="21"/>
       <c r="R22" s="21"/>
@@ -3599,16 +3854,19 @@
       <c r="T22" s="21"/>
       <c r="U22" s="21"/>
       <c r="V22" s="21"/>
-      <c r="W22" s="21"/>
-      <c r="X22" s="21"/>
+      <c r="W22" s="114"/>
+      <c r="X22" s="112"/>
       <c r="Y22" s="21"/>
       <c r="Z22" s="21"/>
       <c r="AA22" s="21"/>
       <c r="AB22" s="21"/>
       <c r="AC22" s="21"/>
-    </row>
-    <row r="23" spans="1:29" ht="33.6" customHeight="1">
-      <c r="A23" s="52">
+      <c r="AD22" s="21"/>
+      <c r="AE22" s="21"/>
+      <c r="AF22" s="21"/>
+    </row>
+    <row r="23" spans="1:32" ht="33.6" customHeight="1">
+      <c r="A23" s="51">
         <v>11</v>
       </c>
       <c r="B23" s="22"/>
@@ -3632,16 +3890,19 @@
       <c r="T23" s="21"/>
       <c r="U23" s="21"/>
       <c r="V23" s="21"/>
-      <c r="W23" s="21"/>
-      <c r="X23" s="21"/>
+      <c r="W23" s="114"/>
+      <c r="X23" s="112"/>
       <c r="Y23" s="21"/>
       <c r="Z23" s="21"/>
       <c r="AA23" s="21"/>
       <c r="AB23" s="21"/>
       <c r="AC23" s="21"/>
-    </row>
-    <row r="24" spans="1:29" ht="33.6" customHeight="1">
-      <c r="A24" s="52">
+      <c r="AD23" s="21"/>
+      <c r="AE23" s="21"/>
+      <c r="AF23" s="21"/>
+    </row>
+    <row r="24" spans="1:32" ht="33.6" customHeight="1">
+      <c r="A24" s="51">
         <v>12</v>
       </c>
       <c r="B24" s="22"/>
@@ -3655,7 +3916,7 @@
       <c r="J24" s="22"/>
       <c r="K24" s="22"/>
       <c r="L24" s="21"/>
-      <c r="M24" s="35"/>
+      <c r="M24" s="34"/>
       <c r="N24" s="21"/>
       <c r="O24" s="21"/>
       <c r="P24" s="21"/>
@@ -3665,16 +3926,19 @@
       <c r="T24" s="21"/>
       <c r="U24" s="21"/>
       <c r="V24" s="21"/>
-      <c r="W24" s="21"/>
-      <c r="X24" s="21"/>
+      <c r="W24" s="114"/>
+      <c r="X24" s="112"/>
       <c r="Y24" s="21"/>
       <c r="Z24" s="21"/>
       <c r="AA24" s="21"/>
       <c r="AB24" s="21"/>
       <c r="AC24" s="21"/>
-    </row>
-    <row r="25" spans="1:29" ht="33.6" customHeight="1">
-      <c r="A25" s="52">
+      <c r="AD24" s="21"/>
+      <c r="AE24" s="21"/>
+      <c r="AF24" s="21"/>
+    </row>
+    <row r="25" spans="1:32" ht="33.6" customHeight="1">
+      <c r="A25" s="51">
         <v>13</v>
       </c>
       <c r="B25" s="22"/>
@@ -3698,16 +3962,19 @@
       <c r="T25" s="21"/>
       <c r="U25" s="24"/>
       <c r="V25" s="21"/>
-      <c r="W25" s="21"/>
-      <c r="X25" s="21"/>
+      <c r="W25" s="114"/>
+      <c r="X25" s="112"/>
       <c r="Y25" s="21"/>
       <c r="Z25" s="21"/>
       <c r="AA25" s="21"/>
       <c r="AB25" s="21"/>
       <c r="AC25" s="21"/>
-    </row>
-    <row r="26" spans="1:29" ht="33.6" customHeight="1">
-      <c r="A26" s="52">
+      <c r="AD25" s="21"/>
+      <c r="AE25" s="21"/>
+      <c r="AF25" s="21"/>
+    </row>
+    <row r="26" spans="1:32" ht="33.6" customHeight="1">
+      <c r="A26" s="51">
         <v>14</v>
       </c>
       <c r="B26" s="22"/>
@@ -3731,16 +3998,19 @@
       <c r="T26" s="21"/>
       <c r="U26" s="24"/>
       <c r="V26" s="21"/>
-      <c r="W26" s="21"/>
-      <c r="X26" s="21"/>
+      <c r="W26" s="114"/>
+      <c r="X26" s="112"/>
       <c r="Y26" s="21"/>
       <c r="Z26" s="21"/>
       <c r="AA26" s="21"/>
       <c r="AB26" s="21"/>
       <c r="AC26" s="21"/>
-    </row>
-    <row r="27" spans="1:29" ht="33.6" customHeight="1">
-      <c r="A27" s="52">
+      <c r="AD26" s="21"/>
+      <c r="AE26" s="21"/>
+      <c r="AF26" s="21"/>
+    </row>
+    <row r="27" spans="1:32" ht="33.6" customHeight="1">
+      <c r="A27" s="51">
         <v>15</v>
       </c>
       <c r="B27" s="22"/>
@@ -3764,16 +4034,19 @@
       <c r="T27" s="21"/>
       <c r="U27" s="24"/>
       <c r="V27" s="21"/>
-      <c r="W27" s="21"/>
-      <c r="X27" s="21"/>
+      <c r="W27" s="114"/>
+      <c r="X27" s="112"/>
       <c r="Y27" s="21"/>
       <c r="Z27" s="21"/>
       <c r="AA27" s="21"/>
       <c r="AB27" s="21"/>
       <c r="AC27" s="21"/>
-    </row>
-    <row r="28" spans="1:29" ht="33.6" customHeight="1">
-      <c r="A28" s="52">
+      <c r="AD27" s="21"/>
+      <c r="AE27" s="21"/>
+      <c r="AF27" s="21"/>
+    </row>
+    <row r="28" spans="1:32" ht="33.6" customHeight="1">
+      <c r="A28" s="51">
         <v>16</v>
       </c>
       <c r="B28" s="22"/>
@@ -3797,16 +4070,19 @@
       <c r="T28" s="21"/>
       <c r="U28" s="24"/>
       <c r="V28" s="21"/>
-      <c r="W28" s="21"/>
-      <c r="X28" s="21"/>
+      <c r="W28" s="114"/>
+      <c r="X28" s="112"/>
       <c r="Y28" s="21"/>
       <c r="Z28" s="21"/>
       <c r="AA28" s="21"/>
       <c r="AB28" s="21"/>
       <c r="AC28" s="21"/>
-    </row>
-    <row r="29" spans="1:29" ht="33.6" customHeight="1">
-      <c r="A29" s="52">
+      <c r="AD28" s="21"/>
+      <c r="AE28" s="21"/>
+      <c r="AF28" s="21"/>
+    </row>
+    <row r="29" spans="1:32" ht="33.6" customHeight="1">
+      <c r="A29" s="51">
         <v>17</v>
       </c>
       <c r="B29" s="22"/>
@@ -3830,16 +4106,19 @@
       <c r="T29" s="21"/>
       <c r="U29" s="24"/>
       <c r="V29" s="21"/>
-      <c r="W29" s="21"/>
-      <c r="X29" s="21"/>
+      <c r="W29" s="114"/>
+      <c r="X29" s="112"/>
       <c r="Y29" s="21"/>
       <c r="Z29" s="21"/>
       <c r="AA29" s="21"/>
       <c r="AB29" s="21"/>
       <c r="AC29" s="21"/>
-    </row>
-    <row r="30" spans="1:29" ht="33.6" customHeight="1">
-      <c r="A30" s="52">
+      <c r="AD29" s="21"/>
+      <c r="AE29" s="21"/>
+      <c r="AF29" s="21"/>
+    </row>
+    <row r="30" spans="1:32" ht="33.6" customHeight="1">
+      <c r="A30" s="51">
         <v>18</v>
       </c>
       <c r="B30" s="22"/>
@@ -3863,16 +4142,19 @@
       <c r="T30" s="21"/>
       <c r="U30" s="24"/>
       <c r="V30" s="21"/>
-      <c r="W30" s="21"/>
-      <c r="X30" s="21"/>
+      <c r="W30" s="114"/>
+      <c r="X30" s="112"/>
       <c r="Y30" s="21"/>
       <c r="Z30" s="21"/>
       <c r="AA30" s="21"/>
       <c r="AB30" s="21"/>
       <c r="AC30" s="21"/>
-    </row>
-    <row r="31" spans="1:29" ht="33.6" customHeight="1">
-      <c r="A31" s="52">
+      <c r="AD30" s="21"/>
+      <c r="AE30" s="21"/>
+      <c r="AF30" s="21"/>
+    </row>
+    <row r="31" spans="1:32" ht="33.6" customHeight="1">
+      <c r="A31" s="51">
         <v>19</v>
       </c>
       <c r="B31" s="22"/>
@@ -3896,16 +4178,19 @@
       <c r="T31" s="21"/>
       <c r="U31" s="24"/>
       <c r="V31" s="21"/>
-      <c r="W31" s="21"/>
-      <c r="X31" s="21"/>
+      <c r="W31" s="114"/>
+      <c r="X31" s="112"/>
       <c r="Y31" s="21"/>
       <c r="Z31" s="21"/>
       <c r="AA31" s="21"/>
       <c r="AB31" s="21"/>
       <c r="AC31" s="21"/>
-    </row>
-    <row r="32" spans="1:29" ht="33.6" customHeight="1">
-      <c r="A32" s="52">
+      <c r="AD31" s="21"/>
+      <c r="AE31" s="21"/>
+      <c r="AF31" s="21"/>
+    </row>
+    <row r="32" spans="1:32" ht="33.6" customHeight="1">
+      <c r="A32" s="51">
         <v>20</v>
       </c>
       <c r="B32" s="22"/>
@@ -3929,28 +4214,31 @@
       <c r="T32" s="23"/>
       <c r="U32" s="24"/>
       <c r="V32" s="21"/>
-      <c r="W32" s="21"/>
-      <c r="X32" s="21"/>
+      <c r="W32" s="114"/>
+      <c r="X32" s="112"/>
       <c r="Y32" s="21"/>
       <c r="Z32" s="21"/>
       <c r="AA32" s="21"/>
       <c r="AB32" s="21"/>
       <c r="AC32" s="21"/>
-    </row>
-    <row r="33" spans="1:29" ht="33.6" customHeight="1">
-      <c r="A33" s="52">
+      <c r="AD32" s="21"/>
+      <c r="AE32" s="21"/>
+      <c r="AF32" s="21"/>
+    </row>
+    <row r="33" spans="1:32" ht="33.6" customHeight="1">
+      <c r="A33" s="51">
         <v>21</v>
       </c>
-      <c r="B33" s="52"/>
-      <c r="C33" s="52"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="52"/>
-      <c r="G33" s="52"/>
-      <c r="H33" s="52"/>
+      <c r="B33" s="51"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="51"/>
       <c r="I33" s="22"/>
-      <c r="J33" s="52"/>
-      <c r="K33" s="52"/>
+      <c r="J33" s="51"/>
+      <c r="K33" s="51"/>
       <c r="L33" s="21"/>
       <c r="M33" s="21"/>
       <c r="N33" s="21"/>
@@ -3962,28 +4250,31 @@
       <c r="T33" s="21"/>
       <c r="U33" s="21"/>
       <c r="V33" s="21"/>
-      <c r="W33" s="21"/>
-      <c r="X33" s="21"/>
+      <c r="W33" s="114"/>
+      <c r="X33" s="112"/>
       <c r="Y33" s="21"/>
       <c r="Z33" s="21"/>
       <c r="AA33" s="21"/>
       <c r="AB33" s="21"/>
       <c r="AC33" s="21"/>
-    </row>
-    <row r="34" spans="1:29" ht="33.6" customHeight="1">
-      <c r="A34" s="52">
+      <c r="AD33" s="21"/>
+      <c r="AE33" s="21"/>
+      <c r="AF33" s="21"/>
+    </row>
+    <row r="34" spans="1:32" ht="33.6" customHeight="1">
+      <c r="A34" s="51">
         <v>22</v>
       </c>
-      <c r="B34" s="52"/>
-      <c r="C34" s="52"/>
-      <c r="D34" s="52"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="52"/>
-      <c r="H34" s="52"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="51"/>
       <c r="I34" s="22"/>
-      <c r="J34" s="52"/>
-      <c r="K34" s="52"/>
+      <c r="J34" s="51"/>
+      <c r="K34" s="51"/>
       <c r="L34" s="21"/>
       <c r="M34" s="21"/>
       <c r="N34" s="21"/>
@@ -3995,28 +4286,31 @@
       <c r="T34" s="21"/>
       <c r="U34" s="21"/>
       <c r="V34" s="21"/>
-      <c r="W34" s="21"/>
-      <c r="X34" s="21"/>
+      <c r="W34" s="114"/>
+      <c r="X34" s="112"/>
       <c r="Y34" s="21"/>
       <c r="Z34" s="21"/>
       <c r="AA34" s="21"/>
       <c r="AB34" s="21"/>
       <c r="AC34" s="21"/>
-    </row>
-    <row r="35" spans="1:29" ht="33.6" customHeight="1">
-      <c r="A35" s="52">
+      <c r="AD34" s="21"/>
+      <c r="AE34" s="21"/>
+      <c r="AF34" s="21"/>
+    </row>
+    <row r="35" spans="1:32" ht="33.6" customHeight="1">
+      <c r="A35" s="51">
         <v>23</v>
       </c>
-      <c r="B35" s="52"/>
-      <c r="C35" s="52"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="52"/>
-      <c r="H35" s="52"/>
+      <c r="B35" s="51"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="51"/>
       <c r="I35" s="22"/>
-      <c r="J35" s="52"/>
-      <c r="K35" s="52"/>
+      <c r="J35" s="51"/>
+      <c r="K35" s="51"/>
       <c r="L35" s="21"/>
       <c r="M35" s="21"/>
       <c r="N35" s="21"/>
@@ -4028,28 +4322,31 @@
       <c r="T35" s="21"/>
       <c r="U35" s="21"/>
       <c r="V35" s="21"/>
-      <c r="W35" s="21"/>
-      <c r="X35" s="21"/>
+      <c r="W35" s="114"/>
+      <c r="X35" s="112"/>
       <c r="Y35" s="21"/>
       <c r="Z35" s="21"/>
       <c r="AA35" s="21"/>
       <c r="AB35" s="21"/>
       <c r="AC35" s="21"/>
-    </row>
-    <row r="36" spans="1:29" ht="33.6" customHeight="1">
-      <c r="A36" s="52">
+      <c r="AD35" s="21"/>
+      <c r="AE35" s="21"/>
+      <c r="AF35" s="21"/>
+    </row>
+    <row r="36" spans="1:32" ht="33.6" customHeight="1">
+      <c r="A36" s="51">
         <v>24</v>
       </c>
-      <c r="B36" s="52"/>
-      <c r="C36" s="52"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="52"/>
-      <c r="H36" s="52"/>
+      <c r="B36" s="51"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="51"/>
       <c r="I36" s="22"/>
-      <c r="J36" s="52"/>
-      <c r="K36" s="52"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="51"/>
       <c r="L36" s="21"/>
       <c r="M36" s="21"/>
       <c r="N36" s="21"/>
@@ -4061,28 +4358,31 @@
       <c r="T36" s="21"/>
       <c r="U36" s="21"/>
       <c r="V36" s="21"/>
-      <c r="W36" s="21"/>
-      <c r="X36" s="21"/>
+      <c r="W36" s="114"/>
+      <c r="X36" s="112"/>
       <c r="Y36" s="21"/>
       <c r="Z36" s="21"/>
       <c r="AA36" s="21"/>
       <c r="AB36" s="21"/>
       <c r="AC36" s="21"/>
-    </row>
-    <row r="37" spans="1:29" ht="33.6" customHeight="1">
-      <c r="A37" s="52">
+      <c r="AD36" s="21"/>
+      <c r="AE36" s="21"/>
+      <c r="AF36" s="21"/>
+    </row>
+    <row r="37" spans="1:32" ht="33.6" customHeight="1">
+      <c r="A37" s="51">
         <v>25</v>
       </c>
-      <c r="B37" s="52"/>
-      <c r="C37" s="52"/>
-      <c r="D37" s="52"/>
-      <c r="E37" s="52"/>
-      <c r="F37" s="52"/>
-      <c r="G37" s="52"/>
-      <c r="H37" s="52"/>
+      <c r="B37" s="51"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="51"/>
       <c r="I37" s="22"/>
-      <c r="J37" s="52"/>
-      <c r="K37" s="52"/>
+      <c r="J37" s="51"/>
+      <c r="K37" s="51"/>
       <c r="L37" s="21"/>
       <c r="M37" s="21"/>
       <c r="N37" s="21"/>
@@ -4094,28 +4394,31 @@
       <c r="T37" s="21"/>
       <c r="U37" s="21"/>
       <c r="V37" s="21"/>
-      <c r="W37" s="21"/>
-      <c r="X37" s="21"/>
+      <c r="W37" s="114"/>
+      <c r="X37" s="112"/>
       <c r="Y37" s="21"/>
       <c r="Z37" s="21"/>
       <c r="AA37" s="21"/>
       <c r="AB37" s="21"/>
       <c r="AC37" s="21"/>
-    </row>
-    <row r="38" spans="1:29" ht="33.6" customHeight="1">
-      <c r="A38" s="52">
+      <c r="AD37" s="21"/>
+      <c r="AE37" s="21"/>
+      <c r="AF37" s="21"/>
+    </row>
+    <row r="38" spans="1:32" ht="33.6" customHeight="1">
+      <c r="A38" s="51">
         <v>26</v>
       </c>
-      <c r="B38" s="52"/>
-      <c r="C38" s="52"/>
-      <c r="D38" s="52"/>
-      <c r="E38" s="52"/>
-      <c r="F38" s="52"/>
-      <c r="G38" s="52"/>
-      <c r="H38" s="52"/>
+      <c r="B38" s="51"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="51"/>
       <c r="I38" s="22"/>
-      <c r="J38" s="52"/>
-      <c r="K38" s="52"/>
+      <c r="J38" s="51"/>
+      <c r="K38" s="51"/>
       <c r="L38" s="21"/>
       <c r="M38" s="21"/>
       <c r="N38" s="21"/>
@@ -4127,28 +4430,31 @@
       <c r="T38" s="21"/>
       <c r="U38" s="21"/>
       <c r="V38" s="21"/>
-      <c r="W38" s="21"/>
-      <c r="X38" s="21"/>
+      <c r="W38" s="114"/>
+      <c r="X38" s="112"/>
       <c r="Y38" s="21"/>
       <c r="Z38" s="21"/>
       <c r="AA38" s="21"/>
       <c r="AB38" s="21"/>
       <c r="AC38" s="21"/>
-    </row>
-    <row r="39" spans="1:29" ht="33.6" customHeight="1">
-      <c r="A39" s="52">
+      <c r="AD38" s="21"/>
+      <c r="AE38" s="21"/>
+      <c r="AF38" s="21"/>
+    </row>
+    <row r="39" spans="1:32" ht="33.6" customHeight="1">
+      <c r="A39" s="51">
         <v>27</v>
       </c>
-      <c r="B39" s="52"/>
-      <c r="C39" s="52"/>
-      <c r="D39" s="52"/>
-      <c r="E39" s="52"/>
-      <c r="F39" s="52"/>
-      <c r="G39" s="52"/>
-      <c r="H39" s="52"/>
+      <c r="B39" s="51"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="51"/>
       <c r="I39" s="22"/>
-      <c r="J39" s="52"/>
-      <c r="K39" s="52"/>
+      <c r="J39" s="51"/>
+      <c r="K39" s="51"/>
       <c r="L39" s="21"/>
       <c r="M39" s="21"/>
       <c r="N39" s="21"/>
@@ -4160,28 +4466,31 @@
       <c r="T39" s="21"/>
       <c r="U39" s="21"/>
       <c r="V39" s="21"/>
-      <c r="W39" s="21"/>
-      <c r="X39" s="21"/>
+      <c r="W39" s="114"/>
+      <c r="X39" s="112"/>
       <c r="Y39" s="21"/>
       <c r="Z39" s="21"/>
       <c r="AA39" s="21"/>
       <c r="AB39" s="21"/>
       <c r="AC39" s="21"/>
-    </row>
-    <row r="40" spans="1:29" ht="33.6" customHeight="1">
-      <c r="A40" s="52">
+      <c r="AD39" s="21"/>
+      <c r="AE39" s="21"/>
+      <c r="AF39" s="21"/>
+    </row>
+    <row r="40" spans="1:32" ht="33.6" customHeight="1">
+      <c r="A40" s="51">
         <v>28</v>
       </c>
-      <c r="B40" s="52"/>
-      <c r="C40" s="52"/>
-      <c r="D40" s="52"/>
-      <c r="E40" s="52"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="52"/>
-      <c r="H40" s="52"/>
+      <c r="B40" s="51"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="51"/>
       <c r="I40" s="22"/>
-      <c r="J40" s="52"/>
-      <c r="K40" s="52"/>
+      <c r="J40" s="51"/>
+      <c r="K40" s="51"/>
       <c r="L40" s="21"/>
       <c r="M40" s="21"/>
       <c r="N40" s="21"/>
@@ -4193,28 +4502,31 @@
       <c r="T40" s="21"/>
       <c r="U40" s="21"/>
       <c r="V40" s="21"/>
-      <c r="W40" s="21"/>
-      <c r="X40" s="21"/>
+      <c r="W40" s="114"/>
+      <c r="X40" s="112"/>
       <c r="Y40" s="21"/>
       <c r="Z40" s="21"/>
       <c r="AA40" s="21"/>
       <c r="AB40" s="21"/>
       <c r="AC40" s="21"/>
-    </row>
-    <row r="41" spans="1:29" ht="33.6" customHeight="1">
-      <c r="A41" s="52">
+      <c r="AD40" s="21"/>
+      <c r="AE40" s="21"/>
+      <c r="AF40" s="21"/>
+    </row>
+    <row r="41" spans="1:32" ht="33.6" customHeight="1">
+      <c r="A41" s="51">
         <v>29</v>
       </c>
-      <c r="B41" s="52"/>
-      <c r="C41" s="52"/>
-      <c r="D41" s="52"/>
-      <c r="E41" s="52"/>
-      <c r="F41" s="52"/>
-      <c r="G41" s="52"/>
-      <c r="H41" s="52"/>
+      <c r="B41" s="51"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="51"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="51"/>
       <c r="I41" s="22"/>
-      <c r="J41" s="52"/>
-      <c r="K41" s="52"/>
+      <c r="J41" s="51"/>
+      <c r="K41" s="51"/>
       <c r="L41" s="21"/>
       <c r="M41" s="21"/>
       <c r="N41" s="21"/>
@@ -4226,28 +4538,31 @@
       <c r="T41" s="21"/>
       <c r="U41" s="21"/>
       <c r="V41" s="21"/>
-      <c r="W41" s="21"/>
-      <c r="X41" s="21"/>
+      <c r="W41" s="114"/>
+      <c r="X41" s="112"/>
       <c r="Y41" s="21"/>
       <c r="Z41" s="21"/>
       <c r="AA41" s="21"/>
       <c r="AB41" s="21"/>
       <c r="AC41" s="21"/>
-    </row>
-    <row r="42" spans="1:29" ht="33.6" customHeight="1">
-      <c r="A42" s="52">
+      <c r="AD41" s="21"/>
+      <c r="AE41" s="21"/>
+      <c r="AF41" s="21"/>
+    </row>
+    <row r="42" spans="1:32" ht="33.6" customHeight="1">
+      <c r="A42" s="51">
         <v>30</v>
       </c>
-      <c r="B42" s="52"/>
-      <c r="C42" s="52"/>
-      <c r="D42" s="52"/>
-      <c r="E42" s="52"/>
-      <c r="F42" s="52"/>
-      <c r="G42" s="52"/>
-      <c r="H42" s="52"/>
+      <c r="B42" s="51"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="51"/>
+      <c r="E42" s="51"/>
+      <c r="F42" s="51"/>
+      <c r="G42" s="51"/>
+      <c r="H42" s="51"/>
       <c r="I42" s="22"/>
-      <c r="J42" s="52"/>
-      <c r="K42" s="52"/>
+      <c r="J42" s="51"/>
+      <c r="K42" s="51"/>
       <c r="L42" s="21"/>
       <c r="M42" s="21"/>
       <c r="N42" s="21"/>
@@ -4259,28 +4574,31 @@
       <c r="T42" s="21"/>
       <c r="U42" s="21"/>
       <c r="V42" s="21"/>
-      <c r="W42" s="21"/>
-      <c r="X42" s="21"/>
+      <c r="W42" s="114"/>
+      <c r="X42" s="112"/>
       <c r="Y42" s="21"/>
       <c r="Z42" s="21"/>
       <c r="AA42" s="21"/>
       <c r="AB42" s="21"/>
       <c r="AC42" s="21"/>
-    </row>
-    <row r="43" spans="1:29" ht="33.6" customHeight="1">
-      <c r="A43" s="52">
+      <c r="AD42" s="21"/>
+      <c r="AE42" s="21"/>
+      <c r="AF42" s="21"/>
+    </row>
+    <row r="43" spans="1:32" ht="33.6" customHeight="1">
+      <c r="A43" s="51">
         <v>31</v>
       </c>
-      <c r="B43" s="52"/>
-      <c r="C43" s="52"/>
-      <c r="D43" s="52"/>
-      <c r="E43" s="52"/>
-      <c r="F43" s="52"/>
-      <c r="G43" s="52"/>
-      <c r="H43" s="52"/>
+      <c r="B43" s="51"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="51"/>
+      <c r="E43" s="51"/>
+      <c r="F43" s="51"/>
+      <c r="G43" s="51"/>
+      <c r="H43" s="51"/>
       <c r="I43" s="22"/>
-      <c r="J43" s="52"/>
-      <c r="K43" s="52"/>
+      <c r="J43" s="51"/>
+      <c r="K43" s="51"/>
       <c r="L43" s="21"/>
       <c r="M43" s="21"/>
       <c r="N43" s="21"/>
@@ -4292,28 +4610,31 @@
       <c r="T43" s="21"/>
       <c r="U43" s="21"/>
       <c r="V43" s="21"/>
-      <c r="W43" s="21"/>
-      <c r="X43" s="21"/>
+      <c r="W43" s="114"/>
+      <c r="X43" s="112"/>
       <c r="Y43" s="21"/>
       <c r="Z43" s="21"/>
       <c r="AA43" s="21"/>
       <c r="AB43" s="21"/>
       <c r="AC43" s="21"/>
-    </row>
-    <row r="44" spans="1:29" ht="33.6" customHeight="1">
-      <c r="A44" s="52">
+      <c r="AD43" s="21"/>
+      <c r="AE43" s="21"/>
+      <c r="AF43" s="21"/>
+    </row>
+    <row r="44" spans="1:32" ht="33.6" customHeight="1">
+      <c r="A44" s="51">
         <v>32</v>
       </c>
-      <c r="B44" s="52"/>
-      <c r="C44" s="52"/>
-      <c r="D44" s="52"/>
-      <c r="E44" s="52"/>
-      <c r="F44" s="52"/>
-      <c r="G44" s="52"/>
-      <c r="H44" s="52"/>
+      <c r="B44" s="51"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="51"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="51"/>
+      <c r="G44" s="51"/>
+      <c r="H44" s="51"/>
       <c r="I44" s="22"/>
-      <c r="J44" s="52"/>
-      <c r="K44" s="52"/>
+      <c r="J44" s="51"/>
+      <c r="K44" s="51"/>
       <c r="L44" s="21"/>
       <c r="M44" s="21"/>
       <c r="N44" s="21"/>
@@ -4325,28 +4646,31 @@
       <c r="T44" s="21"/>
       <c r="U44" s="21"/>
       <c r="V44" s="21"/>
-      <c r="W44" s="21"/>
-      <c r="X44" s="21"/>
+      <c r="W44" s="114"/>
+      <c r="X44" s="112"/>
       <c r="Y44" s="21"/>
       <c r="Z44" s="21"/>
       <c r="AA44" s="21"/>
       <c r="AB44" s="21"/>
       <c r="AC44" s="21"/>
-    </row>
-    <row r="45" spans="1:29" ht="33.6" customHeight="1">
-      <c r="A45" s="52">
+      <c r="AD44" s="21"/>
+      <c r="AE44" s="21"/>
+      <c r="AF44" s="21"/>
+    </row>
+    <row r="45" spans="1:32" ht="33.6" customHeight="1">
+      <c r="A45" s="51">
         <v>33</v>
       </c>
-      <c r="B45" s="52"/>
-      <c r="C45" s="52"/>
-      <c r="D45" s="52"/>
-      <c r="E45" s="52"/>
-      <c r="F45" s="52"/>
-      <c r="G45" s="52"/>
-      <c r="H45" s="52"/>
+      <c r="B45" s="51"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="51"/>
+      <c r="E45" s="51"/>
+      <c r="F45" s="51"/>
+      <c r="G45" s="51"/>
+      <c r="H45" s="51"/>
       <c r="I45" s="22"/>
-      <c r="J45" s="52"/>
-      <c r="K45" s="52"/>
+      <c r="J45" s="51"/>
+      <c r="K45" s="51"/>
       <c r="L45" s="21"/>
       <c r="M45" s="21"/>
       <c r="N45" s="21"/>
@@ -4358,28 +4682,31 @@
       <c r="T45" s="21"/>
       <c r="U45" s="21"/>
       <c r="V45" s="21"/>
-      <c r="W45" s="21"/>
-      <c r="X45" s="21"/>
+      <c r="W45" s="114"/>
+      <c r="X45" s="112"/>
       <c r="Y45" s="21"/>
       <c r="Z45" s="21"/>
       <c r="AA45" s="21"/>
       <c r="AB45" s="21"/>
       <c r="AC45" s="21"/>
-    </row>
-    <row r="46" spans="1:29" ht="33.6" customHeight="1">
-      <c r="A46" s="52">
+      <c r="AD45" s="21"/>
+      <c r="AE45" s="21"/>
+      <c r="AF45" s="21"/>
+    </row>
+    <row r="46" spans="1:32" ht="33.6" customHeight="1">
+      <c r="A46" s="51">
         <v>34</v>
       </c>
-      <c r="B46" s="52"/>
-      <c r="C46" s="52"/>
-      <c r="D46" s="52"/>
-      <c r="E46" s="52"/>
-      <c r="F46" s="52"/>
-      <c r="G46" s="52"/>
-      <c r="H46" s="52"/>
+      <c r="B46" s="51"/>
+      <c r="C46" s="51"/>
+      <c r="D46" s="51"/>
+      <c r="E46" s="51"/>
+      <c r="F46" s="51"/>
+      <c r="G46" s="51"/>
+      <c r="H46" s="51"/>
       <c r="I46" s="22"/>
-      <c r="J46" s="52"/>
-      <c r="K46" s="52"/>
+      <c r="J46" s="51"/>
+      <c r="K46" s="51"/>
       <c r="L46" s="21"/>
       <c r="M46" s="21"/>
       <c r="N46" s="21"/>
@@ -4391,28 +4718,31 @@
       <c r="T46" s="21"/>
       <c r="U46" s="21"/>
       <c r="V46" s="21"/>
-      <c r="W46" s="21"/>
-      <c r="X46" s="21"/>
+      <c r="W46" s="114"/>
+      <c r="X46" s="112"/>
       <c r="Y46" s="21"/>
       <c r="Z46" s="21"/>
       <c r="AA46" s="21"/>
       <c r="AB46" s="21"/>
       <c r="AC46" s="21"/>
-    </row>
-    <row r="47" spans="1:29" ht="33.6" customHeight="1">
-      <c r="A47" s="52">
+      <c r="AD46" s="21"/>
+      <c r="AE46" s="21"/>
+      <c r="AF46" s="21"/>
+    </row>
+    <row r="47" spans="1:32" ht="33.6" customHeight="1">
+      <c r="A47" s="51">
         <v>35</v>
       </c>
-      <c r="B47" s="52"/>
-      <c r="C47" s="52"/>
-      <c r="D47" s="52"/>
-      <c r="E47" s="52"/>
-      <c r="F47" s="52"/>
-      <c r="G47" s="52"/>
-      <c r="H47" s="52"/>
+      <c r="B47" s="51"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="51"/>
+      <c r="E47" s="51"/>
+      <c r="F47" s="51"/>
+      <c r="G47" s="51"/>
+      <c r="H47" s="51"/>
       <c r="I47" s="22"/>
-      <c r="J47" s="52"/>
-      <c r="K47" s="52"/>
+      <c r="J47" s="51"/>
+      <c r="K47" s="51"/>
       <c r="L47" s="21"/>
       <c r="M47" s="21"/>
       <c r="N47" s="21"/>
@@ -4424,28 +4754,31 @@
       <c r="T47" s="21"/>
       <c r="U47" s="21"/>
       <c r="V47" s="21"/>
-      <c r="W47" s="21"/>
-      <c r="X47" s="21"/>
+      <c r="W47" s="114"/>
+      <c r="X47" s="112"/>
       <c r="Y47" s="21"/>
       <c r="Z47" s="21"/>
       <c r="AA47" s="21"/>
       <c r="AB47" s="21"/>
       <c r="AC47" s="21"/>
-    </row>
-    <row r="48" spans="1:29" ht="33.6" customHeight="1">
-      <c r="A48" s="52">
+      <c r="AD47" s="21"/>
+      <c r="AE47" s="21"/>
+      <c r="AF47" s="21"/>
+    </row>
+    <row r="48" spans="1:32" ht="33.6" customHeight="1">
+      <c r="A48" s="51">
         <v>36</v>
       </c>
-      <c r="B48" s="52"/>
-      <c r="C48" s="52"/>
-      <c r="D48" s="52"/>
-      <c r="E48" s="52"/>
-      <c r="F48" s="52"/>
-      <c r="G48" s="52"/>
-      <c r="H48" s="52"/>
+      <c r="B48" s="51"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="51"/>
+      <c r="E48" s="51"/>
+      <c r="F48" s="51"/>
+      <c r="G48" s="51"/>
+      <c r="H48" s="51"/>
       <c r="I48" s="22"/>
-      <c r="J48" s="52"/>
-      <c r="K48" s="52"/>
+      <c r="J48" s="51"/>
+      <c r="K48" s="51"/>
       <c r="L48" s="21"/>
       <c r="M48" s="21"/>
       <c r="N48" s="21"/>
@@ -4457,28 +4790,31 @@
       <c r="T48" s="21"/>
       <c r="U48" s="21"/>
       <c r="V48" s="21"/>
-      <c r="W48" s="21"/>
-      <c r="X48" s="21"/>
+      <c r="W48" s="114"/>
+      <c r="X48" s="112"/>
       <c r="Y48" s="21"/>
       <c r="Z48" s="21"/>
       <c r="AA48" s="21"/>
       <c r="AB48" s="21"/>
       <c r="AC48" s="21"/>
-    </row>
-    <row r="49" spans="1:29" ht="33.6" customHeight="1">
-      <c r="A49" s="52">
+      <c r="AD48" s="21"/>
+      <c r="AE48" s="21"/>
+      <c r="AF48" s="21"/>
+    </row>
+    <row r="49" spans="1:32" ht="33.6" customHeight="1">
+      <c r="A49" s="51">
         <v>37</v>
       </c>
-      <c r="B49" s="52"/>
-      <c r="C49" s="52"/>
-      <c r="D49" s="52"/>
-      <c r="E49" s="52"/>
-      <c r="F49" s="52"/>
-      <c r="G49" s="52"/>
-      <c r="H49" s="52"/>
+      <c r="B49" s="51"/>
+      <c r="C49" s="51"/>
+      <c r="D49" s="51"/>
+      <c r="E49" s="51"/>
+      <c r="F49" s="51"/>
+      <c r="G49" s="51"/>
+      <c r="H49" s="51"/>
       <c r="I49" s="22"/>
-      <c r="J49" s="52"/>
-      <c r="K49" s="52"/>
+      <c r="J49" s="51"/>
+      <c r="K49" s="51"/>
       <c r="L49" s="21"/>
       <c r="M49" s="21"/>
       <c r="N49" s="21"/>
@@ -4490,28 +4826,31 @@
       <c r="T49" s="21"/>
       <c r="U49" s="21"/>
       <c r="V49" s="21"/>
-      <c r="W49" s="21"/>
-      <c r="X49" s="21"/>
+      <c r="W49" s="114"/>
+      <c r="X49" s="112"/>
       <c r="Y49" s="21"/>
       <c r="Z49" s="21"/>
       <c r="AA49" s="21"/>
       <c r="AB49" s="21"/>
       <c r="AC49" s="21"/>
-    </row>
-    <row r="50" spans="1:29" ht="33.6" customHeight="1">
-      <c r="A50" s="52">
+      <c r="AD49" s="21"/>
+      <c r="AE49" s="21"/>
+      <c r="AF49" s="21"/>
+    </row>
+    <row r="50" spans="1:32" ht="33.6" customHeight="1">
+      <c r="A50" s="51">
         <v>38</v>
       </c>
-      <c r="B50" s="52"/>
-      <c r="C50" s="52"/>
-      <c r="D50" s="52"/>
-      <c r="E50" s="52"/>
-      <c r="F50" s="52"/>
-      <c r="G50" s="52"/>
-      <c r="H50" s="52"/>
+      <c r="B50" s="51"/>
+      <c r="C50" s="51"/>
+      <c r="D50" s="51"/>
+      <c r="E50" s="51"/>
+      <c r="F50" s="51"/>
+      <c r="G50" s="51"/>
+      <c r="H50" s="51"/>
       <c r="I50" s="22"/>
-      <c r="J50" s="52"/>
-      <c r="K50" s="52"/>
+      <c r="J50" s="51"/>
+      <c r="K50" s="51"/>
       <c r="L50" s="21"/>
       <c r="M50" s="21"/>
       <c r="N50" s="21"/>
@@ -4523,28 +4862,31 @@
       <c r="T50" s="21"/>
       <c r="U50" s="21"/>
       <c r="V50" s="21"/>
-      <c r="W50" s="21"/>
-      <c r="X50" s="21"/>
+      <c r="W50" s="114"/>
+      <c r="X50" s="112"/>
       <c r="Y50" s="21"/>
       <c r="Z50" s="21"/>
       <c r="AA50" s="21"/>
       <c r="AB50" s="21"/>
       <c r="AC50" s="21"/>
-    </row>
-    <row r="51" spans="1:29" ht="33.6" customHeight="1">
-      <c r="A51" s="52">
+      <c r="AD50" s="21"/>
+      <c r="AE50" s="21"/>
+      <c r="AF50" s="21"/>
+    </row>
+    <row r="51" spans="1:32" ht="33.6" customHeight="1">
+      <c r="A51" s="51">
         <v>39</v>
       </c>
-      <c r="B51" s="52"/>
-      <c r="C51" s="52"/>
-      <c r="D51" s="52"/>
-      <c r="E51" s="52"/>
-      <c r="F51" s="52"/>
-      <c r="G51" s="52"/>
-      <c r="H51" s="52"/>
+      <c r="B51" s="51"/>
+      <c r="C51" s="51"/>
+      <c r="D51" s="51"/>
+      <c r="E51" s="51"/>
+      <c r="F51" s="51"/>
+      <c r="G51" s="51"/>
+      <c r="H51" s="51"/>
       <c r="I51" s="22"/>
-      <c r="J51" s="52"/>
-      <c r="K51" s="52"/>
+      <c r="J51" s="51"/>
+      <c r="K51" s="51"/>
       <c r="L51" s="21"/>
       <c r="M51" s="21"/>
       <c r="N51" s="21"/>
@@ -4556,28 +4898,31 @@
       <c r="T51" s="21"/>
       <c r="U51" s="21"/>
       <c r="V51" s="21"/>
-      <c r="W51" s="21"/>
-      <c r="X51" s="21"/>
+      <c r="W51" s="114"/>
+      <c r="X51" s="112"/>
       <c r="Y51" s="21"/>
       <c r="Z51" s="21"/>
       <c r="AA51" s="21"/>
       <c r="AB51" s="21"/>
       <c r="AC51" s="21"/>
-    </row>
-    <row r="52" spans="1:29" ht="33.6" customHeight="1">
-      <c r="A52" s="52">
+      <c r="AD51" s="21"/>
+      <c r="AE51" s="21"/>
+      <c r="AF51" s="21"/>
+    </row>
+    <row r="52" spans="1:32" ht="33.6" customHeight="1">
+      <c r="A52" s="51">
         <v>40</v>
       </c>
-      <c r="B52" s="52"/>
-      <c r="C52" s="52"/>
-      <c r="D52" s="52"/>
-      <c r="E52" s="52"/>
-      <c r="F52" s="52"/>
-      <c r="G52" s="52"/>
-      <c r="H52" s="52"/>
+      <c r="B52" s="51"/>
+      <c r="C52" s="51"/>
+      <c r="D52" s="51"/>
+      <c r="E52" s="51"/>
+      <c r="F52" s="51"/>
+      <c r="G52" s="51"/>
+      <c r="H52" s="51"/>
       <c r="I52" s="22"/>
-      <c r="J52" s="52"/>
-      <c r="K52" s="52"/>
+      <c r="J52" s="51"/>
+      <c r="K52" s="51"/>
       <c r="L52" s="21"/>
       <c r="M52" s="21"/>
       <c r="N52" s="21"/>
@@ -4589,28 +4934,31 @@
       <c r="T52" s="21"/>
       <c r="U52" s="21"/>
       <c r="V52" s="21"/>
-      <c r="W52" s="21"/>
-      <c r="X52" s="21"/>
+      <c r="W52" s="114"/>
+      <c r="X52" s="112"/>
       <c r="Y52" s="21"/>
       <c r="Z52" s="21"/>
       <c r="AA52" s="21"/>
       <c r="AB52" s="21"/>
       <c r="AC52" s="21"/>
-    </row>
-    <row r="53" spans="1:29" ht="33.6" customHeight="1">
-      <c r="A53" s="52">
+      <c r="AD52" s="21"/>
+      <c r="AE52" s="21"/>
+      <c r="AF52" s="21"/>
+    </row>
+    <row r="53" spans="1:32" ht="33.6" customHeight="1">
+      <c r="A53" s="51">
         <v>41</v>
       </c>
-      <c r="B53" s="52"/>
-      <c r="C53" s="52"/>
-      <c r="D53" s="52"/>
-      <c r="E53" s="52"/>
-      <c r="F53" s="52"/>
-      <c r="G53" s="52"/>
-      <c r="H53" s="52"/>
+      <c r="B53" s="51"/>
+      <c r="C53" s="51"/>
+      <c r="D53" s="51"/>
+      <c r="E53" s="51"/>
+      <c r="F53" s="51"/>
+      <c r="G53" s="51"/>
+      <c r="H53" s="51"/>
       <c r="I53" s="22"/>
-      <c r="J53" s="52"/>
-      <c r="K53" s="52"/>
+      <c r="J53" s="51"/>
+      <c r="K53" s="51"/>
       <c r="L53" s="21"/>
       <c r="M53" s="21"/>
       <c r="N53" s="21"/>
@@ -4622,28 +4970,31 @@
       <c r="T53" s="21"/>
       <c r="U53" s="21"/>
       <c r="V53" s="21"/>
-      <c r="W53" s="21"/>
-      <c r="X53" s="21"/>
+      <c r="W53" s="114"/>
+      <c r="X53" s="112"/>
       <c r="Y53" s="21"/>
       <c r="Z53" s="21"/>
       <c r="AA53" s="21"/>
       <c r="AB53" s="21"/>
       <c r="AC53" s="21"/>
-    </row>
-    <row r="54" spans="1:29" ht="33.6" customHeight="1">
-      <c r="A54" s="52">
+      <c r="AD53" s="21"/>
+      <c r="AE53" s="21"/>
+      <c r="AF53" s="21"/>
+    </row>
+    <row r="54" spans="1:32" ht="33.6" customHeight="1">
+      <c r="A54" s="51">
         <v>42</v>
       </c>
-      <c r="B54" s="52"/>
-      <c r="C54" s="52"/>
-      <c r="D54" s="52"/>
-      <c r="E54" s="52"/>
-      <c r="F54" s="52"/>
-      <c r="G54" s="52"/>
-      <c r="H54" s="52"/>
+      <c r="B54" s="51"/>
+      <c r="C54" s="51"/>
+      <c r="D54" s="51"/>
+      <c r="E54" s="51"/>
+      <c r="F54" s="51"/>
+      <c r="G54" s="51"/>
+      <c r="H54" s="51"/>
       <c r="I54" s="22"/>
-      <c r="J54" s="52"/>
-      <c r="K54" s="52"/>
+      <c r="J54" s="51"/>
+      <c r="K54" s="51"/>
       <c r="L54" s="21"/>
       <c r="M54" s="21"/>
       <c r="N54" s="21"/>
@@ -4655,28 +5006,31 @@
       <c r="T54" s="21"/>
       <c r="U54" s="21"/>
       <c r="V54" s="21"/>
-      <c r="W54" s="21"/>
-      <c r="X54" s="21"/>
+      <c r="W54" s="114"/>
+      <c r="X54" s="112"/>
       <c r="Y54" s="21"/>
       <c r="Z54" s="21"/>
       <c r="AA54" s="21"/>
       <c r="AB54" s="21"/>
       <c r="AC54" s="21"/>
-    </row>
-    <row r="55" spans="1:29" ht="33.6" customHeight="1">
-      <c r="A55" s="52">
+      <c r="AD54" s="21"/>
+      <c r="AE54" s="21"/>
+      <c r="AF54" s="21"/>
+    </row>
+    <row r="55" spans="1:32" ht="33.6" customHeight="1">
+      <c r="A55" s="51">
         <v>43</v>
       </c>
-      <c r="B55" s="52"/>
-      <c r="C55" s="52"/>
-      <c r="D55" s="52"/>
-      <c r="E55" s="52"/>
-      <c r="F55" s="52"/>
-      <c r="G55" s="52"/>
-      <c r="H55" s="52"/>
+      <c r="B55" s="51"/>
+      <c r="C55" s="51"/>
+      <c r="D55" s="51"/>
+      <c r="E55" s="51"/>
+      <c r="F55" s="51"/>
+      <c r="G55" s="51"/>
+      <c r="H55" s="51"/>
       <c r="I55" s="22"/>
-      <c r="J55" s="52"/>
-      <c r="K55" s="52"/>
+      <c r="J55" s="51"/>
+      <c r="K55" s="51"/>
       <c r="L55" s="21"/>
       <c r="M55" s="21"/>
       <c r="N55" s="21"/>
@@ -4688,28 +5042,31 @@
       <c r="T55" s="21"/>
       <c r="U55" s="21"/>
       <c r="V55" s="21"/>
-      <c r="W55" s="21"/>
-      <c r="X55" s="21"/>
+      <c r="W55" s="114"/>
+      <c r="X55" s="112"/>
       <c r="Y55" s="21"/>
       <c r="Z55" s="21"/>
       <c r="AA55" s="21"/>
       <c r="AB55" s="21"/>
       <c r="AC55" s="21"/>
-    </row>
-    <row r="56" spans="1:29" ht="33.6" customHeight="1">
-      <c r="A56" s="52">
+      <c r="AD55" s="21"/>
+      <c r="AE55" s="21"/>
+      <c r="AF55" s="21"/>
+    </row>
+    <row r="56" spans="1:32" ht="33.6" customHeight="1">
+      <c r="A56" s="51">
         <v>44</v>
       </c>
-      <c r="B56" s="52"/>
-      <c r="C56" s="52"/>
-      <c r="D56" s="52"/>
-      <c r="E56" s="52"/>
-      <c r="F56" s="52"/>
-      <c r="G56" s="52"/>
-      <c r="H56" s="52"/>
+      <c r="B56" s="51"/>
+      <c r="C56" s="51"/>
+      <c r="D56" s="51"/>
+      <c r="E56" s="51"/>
+      <c r="F56" s="51"/>
+      <c r="G56" s="51"/>
+      <c r="H56" s="51"/>
       <c r="I56" s="22"/>
-      <c r="J56" s="52"/>
-      <c r="K56" s="52"/>
+      <c r="J56" s="51"/>
+      <c r="K56" s="51"/>
       <c r="L56" s="21"/>
       <c r="M56" s="21"/>
       <c r="N56" s="21"/>
@@ -4721,28 +5078,31 @@
       <c r="T56" s="21"/>
       <c r="U56" s="21"/>
       <c r="V56" s="21"/>
-      <c r="W56" s="21"/>
-      <c r="X56" s="21"/>
+      <c r="W56" s="114"/>
+      <c r="X56" s="112"/>
       <c r="Y56" s="21"/>
       <c r="Z56" s="21"/>
       <c r="AA56" s="21"/>
       <c r="AB56" s="21"/>
       <c r="AC56" s="21"/>
-    </row>
-    <row r="57" spans="1:29" ht="33.6" customHeight="1">
-      <c r="A57" s="52">
+      <c r="AD56" s="21"/>
+      <c r="AE56" s="21"/>
+      <c r="AF56" s="21"/>
+    </row>
+    <row r="57" spans="1:32" ht="33.6" customHeight="1">
+      <c r="A57" s="51">
         <v>45</v>
       </c>
-      <c r="B57" s="52"/>
-      <c r="C57" s="52"/>
-      <c r="D57" s="52"/>
-      <c r="E57" s="52"/>
-      <c r="F57" s="52"/>
-      <c r="G57" s="52"/>
-      <c r="H57" s="52"/>
+      <c r="B57" s="51"/>
+      <c r="C57" s="51"/>
+      <c r="D57" s="51"/>
+      <c r="E57" s="51"/>
+      <c r="F57" s="51"/>
+      <c r="G57" s="51"/>
+      <c r="H57" s="51"/>
       <c r="I57" s="22"/>
-      <c r="J57" s="52"/>
-      <c r="K57" s="52"/>
+      <c r="J57" s="51"/>
+      <c r="K57" s="51"/>
       <c r="L57" s="21"/>
       <c r="M57" s="21"/>
       <c r="N57" s="21"/>
@@ -4754,28 +5114,31 @@
       <c r="T57" s="21"/>
       <c r="U57" s="21"/>
       <c r="V57" s="21"/>
-      <c r="W57" s="21"/>
-      <c r="X57" s="21"/>
+      <c r="W57" s="114"/>
+      <c r="X57" s="112"/>
       <c r="Y57" s="21"/>
       <c r="Z57" s="21"/>
       <c r="AA57" s="21"/>
       <c r="AB57" s="21"/>
       <c r="AC57" s="21"/>
-    </row>
-    <row r="58" spans="1:29" ht="33.6" customHeight="1">
-      <c r="A58" s="52">
+      <c r="AD57" s="21"/>
+      <c r="AE57" s="21"/>
+      <c r="AF57" s="21"/>
+    </row>
+    <row r="58" spans="1:32" ht="33.6" customHeight="1">
+      <c r="A58" s="51">
         <v>46</v>
       </c>
-      <c r="B58" s="52"/>
-      <c r="C58" s="52"/>
-      <c r="D58" s="52"/>
-      <c r="E58" s="52"/>
-      <c r="F58" s="52"/>
-      <c r="G58" s="52"/>
-      <c r="H58" s="52"/>
+      <c r="B58" s="51"/>
+      <c r="C58" s="51"/>
+      <c r="D58" s="51"/>
+      <c r="E58" s="51"/>
+      <c r="F58" s="51"/>
+      <c r="G58" s="51"/>
+      <c r="H58" s="51"/>
       <c r="I58" s="22"/>
-      <c r="J58" s="52"/>
-      <c r="K58" s="52"/>
+      <c r="J58" s="51"/>
+      <c r="K58" s="51"/>
       <c r="L58" s="21"/>
       <c r="M58" s="21"/>
       <c r="N58" s="21"/>
@@ -4787,28 +5150,31 @@
       <c r="T58" s="21"/>
       <c r="U58" s="21"/>
       <c r="V58" s="21"/>
-      <c r="W58" s="21"/>
-      <c r="X58" s="21"/>
+      <c r="W58" s="114"/>
+      <c r="X58" s="112"/>
       <c r="Y58" s="21"/>
       <c r="Z58" s="21"/>
       <c r="AA58" s="21"/>
       <c r="AB58" s="21"/>
       <c r="AC58" s="21"/>
-    </row>
-    <row r="59" spans="1:29" ht="33.6" customHeight="1">
-      <c r="A59" s="52">
+      <c r="AD58" s="21"/>
+      <c r="AE58" s="21"/>
+      <c r="AF58" s="21"/>
+    </row>
+    <row r="59" spans="1:32" ht="33.6" customHeight="1">
+      <c r="A59" s="51">
         <v>47</v>
       </c>
-      <c r="B59" s="52"/>
-      <c r="C59" s="52"/>
-      <c r="D59" s="52"/>
-      <c r="E59" s="52"/>
-      <c r="F59" s="52"/>
-      <c r="G59" s="52"/>
-      <c r="H59" s="52"/>
+      <c r="B59" s="51"/>
+      <c r="C59" s="51"/>
+      <c r="D59" s="51"/>
+      <c r="E59" s="51"/>
+      <c r="F59" s="51"/>
+      <c r="G59" s="51"/>
+      <c r="H59" s="51"/>
       <c r="I59" s="22"/>
-      <c r="J59" s="52"/>
-      <c r="K59" s="52"/>
+      <c r="J59" s="51"/>
+      <c r="K59" s="51"/>
       <c r="L59" s="21"/>
       <c r="M59" s="21"/>
       <c r="N59" s="21"/>
@@ -4820,28 +5186,31 @@
       <c r="T59" s="21"/>
       <c r="U59" s="21"/>
       <c r="V59" s="21"/>
-      <c r="W59" s="21"/>
-      <c r="X59" s="21"/>
+      <c r="W59" s="114"/>
+      <c r="X59" s="112"/>
       <c r="Y59" s="21"/>
       <c r="Z59" s="21"/>
       <c r="AA59" s="21"/>
       <c r="AB59" s="21"/>
       <c r="AC59" s="21"/>
-    </row>
-    <row r="60" spans="1:29" ht="33.6" customHeight="1">
-      <c r="A60" s="52">
+      <c r="AD59" s="21"/>
+      <c r="AE59" s="21"/>
+      <c r="AF59" s="21"/>
+    </row>
+    <row r="60" spans="1:32" ht="33.6" customHeight="1">
+      <c r="A60" s="51">
         <v>48</v>
       </c>
-      <c r="B60" s="52"/>
-      <c r="C60" s="52"/>
-      <c r="D60" s="52"/>
-      <c r="E60" s="52"/>
-      <c r="F60" s="52"/>
-      <c r="G60" s="52"/>
-      <c r="H60" s="52"/>
+      <c r="B60" s="51"/>
+      <c r="C60" s="51"/>
+      <c r="D60" s="51"/>
+      <c r="E60" s="51"/>
+      <c r="F60" s="51"/>
+      <c r="G60" s="51"/>
+      <c r="H60" s="51"/>
       <c r="I60" s="22"/>
-      <c r="J60" s="52"/>
-      <c r="K60" s="52"/>
+      <c r="J60" s="51"/>
+      <c r="K60" s="51"/>
       <c r="L60" s="21"/>
       <c r="M60" s="21"/>
       <c r="N60" s="21"/>
@@ -4853,28 +5222,31 @@
       <c r="T60" s="21"/>
       <c r="U60" s="21"/>
       <c r="V60" s="21"/>
-      <c r="W60" s="21"/>
-      <c r="X60" s="21"/>
+      <c r="W60" s="114"/>
+      <c r="X60" s="112"/>
       <c r="Y60" s="21"/>
       <c r="Z60" s="21"/>
       <c r="AA60" s="21"/>
       <c r="AB60" s="21"/>
       <c r="AC60" s="21"/>
-    </row>
-    <row r="61" spans="1:29" ht="33.6" customHeight="1">
-      <c r="A61" s="52">
+      <c r="AD60" s="21"/>
+      <c r="AE60" s="21"/>
+      <c r="AF60" s="21"/>
+    </row>
+    <row r="61" spans="1:32" ht="33.6" customHeight="1">
+      <c r="A61" s="51">
         <v>49</v>
       </c>
-      <c r="B61" s="52"/>
-      <c r="C61" s="52"/>
-      <c r="D61" s="52"/>
-      <c r="E61" s="52"/>
-      <c r="F61" s="52"/>
-      <c r="G61" s="52"/>
-      <c r="H61" s="52"/>
+      <c r="B61" s="51"/>
+      <c r="C61" s="51"/>
+      <c r="D61" s="51"/>
+      <c r="E61" s="51"/>
+      <c r="F61" s="51"/>
+      <c r="G61" s="51"/>
+      <c r="H61" s="51"/>
       <c r="I61" s="22"/>
-      <c r="J61" s="52"/>
-      <c r="K61" s="52"/>
+      <c r="J61" s="51"/>
+      <c r="K61" s="51"/>
       <c r="L61" s="21"/>
       <c r="M61" s="21"/>
       <c r="N61" s="21"/>
@@ -4886,28 +5258,31 @@
       <c r="T61" s="21"/>
       <c r="U61" s="21"/>
       <c r="V61" s="21"/>
-      <c r="W61" s="21"/>
-      <c r="X61" s="21"/>
+      <c r="W61" s="114"/>
+      <c r="X61" s="112"/>
       <c r="Y61" s="21"/>
       <c r="Z61" s="21"/>
       <c r="AA61" s="21"/>
       <c r="AB61" s="21"/>
       <c r="AC61" s="21"/>
-    </row>
-    <row r="62" spans="1:29" ht="33.6" customHeight="1">
-      <c r="A62" s="52">
+      <c r="AD61" s="21"/>
+      <c r="AE61" s="21"/>
+      <c r="AF61" s="21"/>
+    </row>
+    <row r="62" spans="1:32" ht="33.6" customHeight="1">
+      <c r="A62" s="51">
         <v>50</v>
       </c>
-      <c r="B62" s="52"/>
-      <c r="C62" s="52"/>
-      <c r="D62" s="52"/>
-      <c r="E62" s="52"/>
-      <c r="F62" s="52"/>
-      <c r="G62" s="52"/>
-      <c r="H62" s="52"/>
+      <c r="B62" s="51"/>
+      <c r="C62" s="51"/>
+      <c r="D62" s="51"/>
+      <c r="E62" s="51"/>
+      <c r="F62" s="51"/>
+      <c r="G62" s="51"/>
+      <c r="H62" s="51"/>
       <c r="I62" s="22"/>
-      <c r="J62" s="52"/>
-      <c r="K62" s="52"/>
+      <c r="J62" s="51"/>
+      <c r="K62" s="51"/>
       <c r="L62" s="21"/>
       <c r="M62" s="21"/>
       <c r="N62" s="21"/>
@@ -4919,20 +5294,23 @@
       <c r="T62" s="21"/>
       <c r="U62" s="21"/>
       <c r="V62" s="21"/>
-      <c r="W62" s="21"/>
-      <c r="X62" s="21"/>
+      <c r="W62" s="114"/>
+      <c r="X62" s="112"/>
       <c r="Y62" s="21"/>
       <c r="Z62" s="21"/>
       <c r="AA62" s="21"/>
       <c r="AB62" s="21"/>
       <c r="AC62" s="21"/>
+      <c r="AD62" s="21"/>
+      <c r="AE62" s="21"/>
+      <c r="AF62" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
     <mergeCell ref="A4:R9"/>
-    <mergeCell ref="X10:AC10"/>
-    <mergeCell ref="X11:Y11"/>
-    <mergeCell ref="Z11:Z12"/>
+    <mergeCell ref="AA10:AF10"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="AC11:AC12"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A3:R3"/>
@@ -4943,6 +5321,7 @@
     <mergeCell ref="F1:N1"/>
     <mergeCell ref="F2:N2"/>
     <mergeCell ref="B11:K11"/>
+    <mergeCell ref="X11:Z11"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="5">
@@ -4970,8 +5349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -4980,7 +5359,8 @@
     <col min="2" max="2" width="20.875" style="19" customWidth="1"/>
     <col min="3" max="3" width="22" style="19" customWidth="1"/>
     <col min="4" max="4" width="13.5" style="19" customWidth="1"/>
-    <col min="5" max="6" width="39.375" style="19" customWidth="1"/>
+    <col min="5" max="5" width="10.625" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.375" style="19" customWidth="1"/>
     <col min="7" max="7" width="52" style="19" customWidth="1"/>
     <col min="8" max="14" width="16.625" style="19" customWidth="1"/>
     <col min="15" max="17" width="16" style="19" customWidth="1"/>
@@ -4990,747 +5370,787 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="89" t="s">
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="41" t="s">
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="J1" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="K1" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="L1" s="32" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="92" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="34">
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="33">
         <v>43441</v>
       </c>
-      <c r="K2" s="34"/>
-      <c r="L2" s="40"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="60"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="81"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="87"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="65"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="67"/>
+      <c r="A4" s="71"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="73"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="65"/>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="67"/>
+      <c r="A5" s="71"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="73"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="65"/>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="67"/>
+      <c r="A6" s="71"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="73"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="65"/>
-      <c r="B7" s="66"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
-      <c r="L7" s="67"/>
+      <c r="A7" s="71"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="73"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="65"/>
-      <c r="B8" s="66"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="66"/>
-      <c r="L8" s="67"/>
+      <c r="A8" s="71"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="73"/>
     </row>
     <row r="9" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A9" s="68"/>
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="70"/>
+      <c r="A9" s="74"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="75"/>
+      <c r="L9" s="76"/>
     </row>
     <row r="10" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A10" s="98" t="s">
+      <c r="A10" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="99"/>
-      <c r="C10" s="99"/>
-      <c r="D10" s="99"/>
-      <c r="E10" s="99"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="47" t="s">
+      <c r="B10" s="103"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="46" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="20" customFormat="1">
-      <c r="A11" s="84" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="82" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="82" t="s">
+      <c r="A11" s="90" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="88" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="88" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="82"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="96" t="s">
-        <v>69</v>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="106" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="20" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A12" s="85"/>
-      <c r="B12" s="101"/>
-      <c r="C12" s="25" t="s">
+      <c r="A12" s="91"/>
+      <c r="B12" s="105"/>
+      <c r="C12" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="E12" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F12" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="G12" s="97"/>
+      <c r="G12" s="107"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="43">
+      <c r="A13" s="42">
         <v>1</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="49"/>
+      <c r="B13" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="F13" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="G13" s="48"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="36">
+      <c r="A14" s="56">
         <v>2</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="50"/>
+      <c r="B14" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="G14" s="49"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="36">
+      <c r="A15" s="56">
         <v>3</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="50"/>
+      <c r="B15" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="F15" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="G15" s="49"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="36">
+      <c r="A16" s="56">
         <v>4</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="50"/>
+      <c r="B16" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16" s="49"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="36">
+      <c r="A17" s="56">
         <v>5</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="21"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="34"/>
       <c r="E17" s="21"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="50"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="49"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="36">
+      <c r="A18" s="56">
         <v>6</v>
       </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="21"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="34"/>
       <c r="E18" s="21"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="50"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="49"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="36">
+      <c r="A19" s="56">
         <v>7</v>
       </c>
-      <c r="B19" s="37"/>
+      <c r="B19" s="57"/>
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
       <c r="E19" s="21"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="50"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="49"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="36">
+      <c r="A20" s="56">
         <v>8</v>
       </c>
-      <c r="B20" s="37"/>
+      <c r="B20" s="57"/>
       <c r="C20" s="21"/>
       <c r="D20" s="21"/>
       <c r="E20" s="21"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="50"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="49"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="36">
+      <c r="A21" s="56">
         <v>9</v>
       </c>
-      <c r="B21" s="37"/>
+      <c r="B21" s="57"/>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="50"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="49"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="36">
+      <c r="A22" s="56">
         <v>10</v>
       </c>
-      <c r="B22" s="37"/>
+      <c r="B22" s="57"/>
       <c r="C22" s="21"/>
       <c r="D22" s="21"/>
       <c r="E22" s="21"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="50"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="49"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="36">
+      <c r="A23" s="56">
         <v>11</v>
       </c>
-      <c r="B23" s="37"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="21"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="34"/>
       <c r="E23" s="21"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="50"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="49"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="36">
+      <c r="A24" s="56">
         <v>12</v>
       </c>
-      <c r="B24" s="37"/>
+      <c r="B24" s="57"/>
       <c r="C24" s="21"/>
       <c r="D24" s="21"/>
       <c r="E24" s="21"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="50"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="49"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="36">
+      <c r="A25" s="56">
         <v>13</v>
       </c>
-      <c r="B25" s="37"/>
+      <c r="B25" s="57"/>
       <c r="C25" s="21"/>
       <c r="D25" s="21"/>
       <c r="E25" s="21"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="50"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="49"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="36">
+      <c r="A26" s="56">
         <v>14</v>
       </c>
-      <c r="B26" s="37"/>
+      <c r="B26" s="57"/>
       <c r="C26" s="21"/>
       <c r="D26" s="21"/>
       <c r="E26" s="21"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="50"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="49"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="36">
+      <c r="A27" s="56">
         <v>15</v>
       </c>
-      <c r="B27" s="37"/>
+      <c r="B27" s="57"/>
       <c r="C27" s="21"/>
       <c r="D27" s="21"/>
       <c r="E27" s="21"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="50"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="49"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="36">
+      <c r="A28" s="56">
         <v>16</v>
       </c>
-      <c r="B28" s="37"/>
+      <c r="B28" s="57"/>
       <c r="C28" s="21"/>
       <c r="D28" s="21"/>
       <c r="E28" s="21"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="50"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="49"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="36">
+      <c r="A29" s="56">
         <v>17</v>
       </c>
-      <c r="B29" s="37"/>
+      <c r="B29" s="57"/>
       <c r="C29" s="21"/>
       <c r="D29" s="21"/>
       <c r="E29" s="21"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="50"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="49"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="36">
+      <c r="A30" s="56">
         <v>18</v>
       </c>
-      <c r="B30" s="37"/>
+      <c r="B30" s="57"/>
       <c r="C30" s="21"/>
       <c r="D30" s="21"/>
       <c r="E30" s="21"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="50"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="49"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="36">
+      <c r="A31" s="56">
         <v>19</v>
       </c>
-      <c r="B31" s="37"/>
+      <c r="B31" s="57"/>
       <c r="C31" s="21"/>
       <c r="D31" s="21"/>
       <c r="E31" s="21"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="50"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="49"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="36">
+      <c r="A32" s="56">
         <v>20</v>
       </c>
-      <c r="B32" s="37"/>
+      <c r="B32" s="57"/>
       <c r="C32" s="21"/>
       <c r="D32" s="21"/>
       <c r="E32" s="21"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="50"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="49"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="36">
+      <c r="A33" s="56">
         <v>21</v>
       </c>
-      <c r="B33" s="37"/>
+      <c r="B33" s="57"/>
       <c r="C33" s="21"/>
       <c r="D33" s="21"/>
       <c r="E33" s="21"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="50"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="49"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="36">
+      <c r="A34" s="56">
         <v>22</v>
       </c>
-      <c r="B34" s="37"/>
+      <c r="B34" s="57"/>
       <c r="C34" s="21"/>
       <c r="D34" s="21"/>
       <c r="E34" s="21"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="50"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="49"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="36">
+      <c r="A35" s="56">
         <v>23</v>
       </c>
-      <c r="B35" s="37"/>
+      <c r="B35" s="57"/>
       <c r="C35" s="21"/>
       <c r="D35" s="21"/>
       <c r="E35" s="21"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="50"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="49"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="36">
+      <c r="A36" s="56">
         <v>24</v>
       </c>
-      <c r="B36" s="37"/>
+      <c r="B36" s="57"/>
       <c r="C36" s="21"/>
       <c r="D36" s="21"/>
       <c r="E36" s="21"/>
-      <c r="F36" s="46"/>
-      <c r="G36" s="50"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="49"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="36">
+      <c r="A37" s="56">
         <v>25</v>
       </c>
-      <c r="B37" s="37"/>
+      <c r="B37" s="57"/>
       <c r="C37" s="21"/>
       <c r="D37" s="21"/>
       <c r="E37" s="21"/>
-      <c r="F37" s="46"/>
-      <c r="G37" s="50"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="49"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="36">
+      <c r="A38" s="56">
         <v>26</v>
       </c>
-      <c r="B38" s="37"/>
+      <c r="B38" s="57"/>
       <c r="C38" s="21"/>
       <c r="D38" s="21"/>
       <c r="E38" s="21"/>
-      <c r="F38" s="46"/>
-      <c r="G38" s="50"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="49"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="36">
+      <c r="A39" s="56">
         <v>27</v>
       </c>
-      <c r="B39" s="37"/>
+      <c r="B39" s="57"/>
       <c r="C39" s="21"/>
       <c r="D39" s="21"/>
       <c r="E39" s="21"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="50"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="49"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="36">
+      <c r="A40" s="56">
         <v>28</v>
       </c>
-      <c r="B40" s="37"/>
+      <c r="B40" s="57"/>
       <c r="C40" s="21"/>
       <c r="D40" s="21"/>
       <c r="E40" s="21"/>
-      <c r="F40" s="46"/>
-      <c r="G40" s="50"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="49"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="36">
+      <c r="A41" s="56">
         <v>29</v>
       </c>
-      <c r="B41" s="37"/>
+      <c r="B41" s="57"/>
       <c r="C41" s="21"/>
       <c r="D41" s="21"/>
       <c r="E41" s="21"/>
-      <c r="F41" s="46"/>
-      <c r="G41" s="50"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="49"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="36">
+      <c r="A42" s="56">
         <v>30</v>
       </c>
-      <c r="B42" s="37"/>
+      <c r="B42" s="57"/>
       <c r="C42" s="21"/>
       <c r="D42" s="21"/>
       <c r="E42" s="21"/>
-      <c r="F42" s="46"/>
-      <c r="G42" s="50"/>
+      <c r="F42" s="45"/>
+      <c r="G42" s="49"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="36">
+      <c r="A43" s="56">
         <v>31</v>
       </c>
-      <c r="B43" s="37"/>
+      <c r="B43" s="57"/>
       <c r="C43" s="21"/>
       <c r="D43" s="21"/>
       <c r="E43" s="21"/>
-      <c r="F43" s="46"/>
-      <c r="G43" s="50"/>
+      <c r="F43" s="45"/>
+      <c r="G43" s="49"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="36">
+      <c r="A44" s="56">
         <v>32</v>
       </c>
-      <c r="B44" s="37"/>
+      <c r="B44" s="57"/>
       <c r="C44" s="21"/>
       <c r="D44" s="21"/>
       <c r="E44" s="21"/>
-      <c r="F44" s="46"/>
-      <c r="G44" s="50"/>
+      <c r="F44" s="45"/>
+      <c r="G44" s="49"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="36">
+      <c r="A45" s="56">
         <v>33</v>
       </c>
-      <c r="B45" s="37"/>
+      <c r="B45" s="57"/>
       <c r="C45" s="21"/>
       <c r="D45" s="21"/>
       <c r="E45" s="21"/>
-      <c r="F45" s="46"/>
-      <c r="G45" s="50"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="49"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="36">
+      <c r="A46" s="56">
         <v>34</v>
       </c>
-      <c r="B46" s="37"/>
+      <c r="B46" s="57"/>
       <c r="C46" s="21"/>
       <c r="D46" s="21"/>
       <c r="E46" s="21"/>
-      <c r="F46" s="46"/>
-      <c r="G46" s="50"/>
+      <c r="F46" s="45"/>
+      <c r="G46" s="49"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="36">
+      <c r="A47" s="56">
         <v>35</v>
       </c>
-      <c r="B47" s="37"/>
+      <c r="B47" s="57"/>
       <c r="C47" s="21"/>
       <c r="D47" s="21"/>
       <c r="E47" s="21"/>
-      <c r="F47" s="46"/>
-      <c r="G47" s="50"/>
+      <c r="F47" s="45"/>
+      <c r="G47" s="49"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="36">
+      <c r="A48" s="56">
         <v>36</v>
       </c>
-      <c r="B48" s="37"/>
+      <c r="B48" s="57"/>
       <c r="C48" s="21"/>
       <c r="D48" s="21"/>
       <c r="E48" s="21"/>
-      <c r="F48" s="46"/>
-      <c r="G48" s="50"/>
+      <c r="F48" s="45"/>
+      <c r="G48" s="49"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="36">
+      <c r="A49" s="56">
         <v>37</v>
       </c>
-      <c r="B49" s="37"/>
+      <c r="B49" s="57"/>
       <c r="C49" s="21"/>
       <c r="D49" s="21"/>
       <c r="E49" s="21"/>
-      <c r="F49" s="46"/>
-      <c r="G49" s="50"/>
+      <c r="F49" s="45"/>
+      <c r="G49" s="49"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="36">
+      <c r="A50" s="56">
         <v>38</v>
       </c>
-      <c r="B50" s="37"/>
+      <c r="B50" s="57"/>
       <c r="C50" s="21"/>
       <c r="D50" s="21"/>
       <c r="E50" s="21"/>
-      <c r="F50" s="46"/>
-      <c r="G50" s="50"/>
+      <c r="F50" s="45"/>
+      <c r="G50" s="49"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="36">
+      <c r="A51" s="56">
         <v>39</v>
       </c>
-      <c r="B51" s="37"/>
+      <c r="B51" s="57"/>
       <c r="C51" s="21"/>
       <c r="D51" s="21"/>
       <c r="E51" s="21"/>
-      <c r="F51" s="46"/>
-      <c r="G51" s="50"/>
+      <c r="F51" s="45"/>
+      <c r="G51" s="49"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="36">
+      <c r="A52" s="56">
         <v>40</v>
       </c>
-      <c r="B52" s="37"/>
+      <c r="B52" s="57"/>
       <c r="C52" s="21"/>
       <c r="D52" s="21"/>
       <c r="E52" s="21"/>
-      <c r="F52" s="46"/>
-      <c r="G52" s="50"/>
+      <c r="F52" s="45"/>
+      <c r="G52" s="49"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="36">
+      <c r="A53" s="56">
         <v>41</v>
       </c>
-      <c r="B53" s="37"/>
+      <c r="B53" s="57"/>
       <c r="C53" s="21"/>
       <c r="D53" s="21"/>
       <c r="E53" s="21"/>
-      <c r="F53" s="46"/>
-      <c r="G53" s="50"/>
+      <c r="F53" s="45"/>
+      <c r="G53" s="49"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="36">
+      <c r="A54" s="56">
         <v>42</v>
       </c>
-      <c r="B54" s="37"/>
+      <c r="B54" s="57"/>
       <c r="C54" s="21"/>
       <c r="D54" s="21"/>
       <c r="E54" s="21"/>
-      <c r="F54" s="46"/>
-      <c r="G54" s="50"/>
+      <c r="F54" s="45"/>
+      <c r="G54" s="49"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="36">
+      <c r="A55" s="56">
         <v>43</v>
       </c>
-      <c r="B55" s="37"/>
+      <c r="B55" s="57"/>
       <c r="C55" s="21"/>
       <c r="D55" s="21"/>
       <c r="E55" s="21"/>
-      <c r="F55" s="46"/>
-      <c r="G55" s="50"/>
+      <c r="F55" s="45"/>
+      <c r="G55" s="49"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="36">
+      <c r="A56" s="56">
         <v>44</v>
       </c>
-      <c r="B56" s="37"/>
+      <c r="B56" s="57"/>
       <c r="C56" s="21"/>
       <c r="D56" s="21"/>
       <c r="E56" s="21"/>
-      <c r="F56" s="46"/>
-      <c r="G56" s="50"/>
+      <c r="F56" s="45"/>
+      <c r="G56" s="49"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="36">
+      <c r="A57" s="56">
         <v>45</v>
       </c>
-      <c r="B57" s="37"/>
+      <c r="B57" s="57"/>
       <c r="C57" s="21"/>
       <c r="D57" s="21"/>
       <c r="E57" s="21"/>
-      <c r="F57" s="46"/>
-      <c r="G57" s="50"/>
+      <c r="F57" s="45"/>
+      <c r="G57" s="49"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="36">
+      <c r="A58" s="56">
         <v>46</v>
       </c>
-      <c r="B58" s="37"/>
+      <c r="B58" s="57"/>
       <c r="C58" s="21"/>
       <c r="D58" s="21"/>
       <c r="E58" s="21"/>
-      <c r="F58" s="46"/>
-      <c r="G58" s="50"/>
+      <c r="F58" s="45"/>
+      <c r="G58" s="49"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="36">
+      <c r="A59" s="56">
         <v>47</v>
       </c>
-      <c r="B59" s="37"/>
+      <c r="B59" s="57"/>
       <c r="C59" s="21"/>
       <c r="D59" s="21"/>
       <c r="E59" s="21"/>
-      <c r="F59" s="46"/>
-      <c r="G59" s="50"/>
+      <c r="F59" s="45"/>
+      <c r="G59" s="49"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="36">
+      <c r="A60" s="56">
         <v>48</v>
       </c>
-      <c r="B60" s="37"/>
+      <c r="B60" s="57"/>
       <c r="C60" s="21"/>
       <c r="D60" s="21"/>
       <c r="E60" s="21"/>
-      <c r="F60" s="46"/>
-      <c r="G60" s="50"/>
+      <c r="F60" s="45"/>
+      <c r="G60" s="49"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="36">
+      <c r="A61" s="56">
         <v>49</v>
       </c>
-      <c r="B61" s="37"/>
+      <c r="B61" s="57"/>
       <c r="C61" s="21"/>
       <c r="D61" s="21"/>
       <c r="E61" s="21"/>
-      <c r="F61" s="46"/>
-      <c r="G61" s="50"/>
+      <c r="F61" s="45"/>
+      <c r="G61" s="49"/>
     </row>
     <row r="62" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A62" s="38">
+      <c r="A62" s="58">
         <v>50</v>
       </c>
-      <c r="B62" s="39"/>
-      <c r="C62" s="44"/>
-      <c r="D62" s="44"/>
-      <c r="E62" s="44"/>
-      <c r="F62" s="48"/>
-      <c r="G62" s="51"/>
+      <c r="B62" s="59"/>
+      <c r="C62" s="43"/>
+      <c r="D62" s="43"/>
+      <c r="E62" s="43"/>
+      <c r="F62" s="47"/>
+      <c r="G62" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5740,13 +6160,18 @@
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:H2"/>
     <mergeCell ref="A3:L3"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="C11:F11"/>
     <mergeCell ref="A10:F10"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:G12"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E13:E62">
+      <formula1>"String,LongString,Boolean,Number,Date,Image,File"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5755,8 +6180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -5774,562 +6199,562 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="89" t="s">
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="90"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="41" t="s">
+      <c r="E1" s="96"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="J1" s="32" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="92" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="93"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="34">
+      <c r="E2" s="99"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="33">
         <v>43441</v>
       </c>
-      <c r="I2" s="34"/>
-      <c r="J2" s="40"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="39"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="81"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="87"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="65"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="67"/>
+      <c r="A4" s="71"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="73"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="65"/>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="67"/>
+      <c r="A5" s="71"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="73"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="65"/>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="67"/>
+      <c r="A6" s="71"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="73"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="65"/>
-      <c r="B7" s="66"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="67"/>
+      <c r="A7" s="71"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="73"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="65"/>
-      <c r="B8" s="66"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="67"/>
+      <c r="A8" s="71"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="73"/>
     </row>
     <row r="9" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A9" s="68"/>
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="70"/>
+      <c r="A9" s="74"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="76"/>
     </row>
     <row r="10" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A10" s="98" t="s">
+      <c r="A10" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="99"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="47" t="s">
+      <c r="B10" s="103"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="46" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="20" customFormat="1" ht="16.149999999999999" customHeight="1">
-      <c r="A11" s="84" t="s">
+      <c r="A11" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="82" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="102" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" s="96" t="s">
-        <v>25</v>
+      <c r="B11" s="88" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="109" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="106" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="20" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A12" s="85"/>
-      <c r="B12" s="101"/>
-      <c r="C12" s="103"/>
-      <c r="D12" s="97"/>
+      <c r="A12" s="91"/>
+      <c r="B12" s="105"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="108"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="43">
+      <c r="A13" s="42">
         <v>1</v>
       </c>
       <c r="B13" s="22"/>
       <c r="C13" s="23"/>
-      <c r="D13" s="49"/>
+      <c r="D13" s="48"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="36">
+      <c r="A14" s="35">
         <v>2</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="50"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="49"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="36">
+      <c r="A15" s="35">
         <v>3</v>
       </c>
-      <c r="B15" s="37"/>
+      <c r="B15" s="36"/>
       <c r="C15" s="21"/>
-      <c r="D15" s="50"/>
+      <c r="D15" s="49"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="36">
+      <c r="A16" s="35">
         <v>4</v>
       </c>
-      <c r="B16" s="37"/>
+      <c r="B16" s="36"/>
       <c r="C16" s="21"/>
-      <c r="D16" s="50"/>
+      <c r="D16" s="49"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="36">
+      <c r="A17" s="35">
         <v>5</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="50"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="49"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="36">
+      <c r="A18" s="35">
         <v>6</v>
       </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="50"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="49"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="36">
+      <c r="A19" s="35">
         <v>7</v>
       </c>
-      <c r="B19" s="37"/>
+      <c r="B19" s="36"/>
       <c r="C19" s="21"/>
-      <c r="D19" s="50"/>
+      <c r="D19" s="49"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="36">
+      <c r="A20" s="35">
         <v>8</v>
       </c>
-      <c r="B20" s="37"/>
+      <c r="B20" s="36"/>
       <c r="C20" s="21"/>
-      <c r="D20" s="50"/>
+      <c r="D20" s="49"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="36">
+      <c r="A21" s="35">
         <v>9</v>
       </c>
-      <c r="B21" s="37"/>
+      <c r="B21" s="36"/>
       <c r="C21" s="21"/>
-      <c r="D21" s="50"/>
+      <c r="D21" s="49"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="36">
+      <c r="A22" s="35">
         <v>10</v>
       </c>
-      <c r="B22" s="37"/>
+      <c r="B22" s="36"/>
       <c r="C22" s="21"/>
-      <c r="D22" s="50"/>
+      <c r="D22" s="49"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="36">
+      <c r="A23" s="35">
         <v>11</v>
       </c>
-      <c r="B23" s="37"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="50"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="49"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="36">
+      <c r="A24" s="35">
         <v>12</v>
       </c>
-      <c r="B24" s="37"/>
+      <c r="B24" s="36"/>
       <c r="C24" s="21"/>
-      <c r="D24" s="50"/>
+      <c r="D24" s="49"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="36">
+      <c r="A25" s="35">
         <v>13</v>
       </c>
-      <c r="B25" s="37"/>
+      <c r="B25" s="36"/>
       <c r="C25" s="21"/>
-      <c r="D25" s="50"/>
+      <c r="D25" s="49"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="36">
+      <c r="A26" s="35">
         <v>14</v>
       </c>
-      <c r="B26" s="37"/>
+      <c r="B26" s="36"/>
       <c r="C26" s="21"/>
-      <c r="D26" s="50"/>
+      <c r="D26" s="49"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="36">
+      <c r="A27" s="35">
         <v>15</v>
       </c>
-      <c r="B27" s="37"/>
+      <c r="B27" s="36"/>
       <c r="C27" s="21"/>
-      <c r="D27" s="50"/>
+      <c r="D27" s="49"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="36">
+      <c r="A28" s="35">
         <v>16</v>
       </c>
-      <c r="B28" s="37"/>
+      <c r="B28" s="36"/>
       <c r="C28" s="21"/>
-      <c r="D28" s="50"/>
+      <c r="D28" s="49"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="36">
+      <c r="A29" s="35">
         <v>17</v>
       </c>
-      <c r="B29" s="37"/>
+      <c r="B29" s="36"/>
       <c r="C29" s="21"/>
-      <c r="D29" s="50"/>
+      <c r="D29" s="49"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="36">
+      <c r="A30" s="35">
         <v>18</v>
       </c>
-      <c r="B30" s="37"/>
+      <c r="B30" s="36"/>
       <c r="C30" s="21"/>
-      <c r="D30" s="50"/>
+      <c r="D30" s="49"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="36">
+      <c r="A31" s="35">
         <v>19</v>
       </c>
-      <c r="B31" s="37"/>
+      <c r="B31" s="36"/>
       <c r="C31" s="21"/>
-      <c r="D31" s="50"/>
+      <c r="D31" s="49"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="36">
+      <c r="A32" s="35">
         <v>20</v>
       </c>
-      <c r="B32" s="37"/>
+      <c r="B32" s="36"/>
       <c r="C32" s="21"/>
-      <c r="D32" s="50"/>
+      <c r="D32" s="49"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="36">
+      <c r="A33" s="35">
         <v>21</v>
       </c>
-      <c r="B33" s="37"/>
+      <c r="B33" s="36"/>
       <c r="C33" s="21"/>
-      <c r="D33" s="50"/>
+      <c r="D33" s="49"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="36">
+      <c r="A34" s="35">
         <v>22</v>
       </c>
-      <c r="B34" s="37"/>
+      <c r="B34" s="36"/>
       <c r="C34" s="21"/>
-      <c r="D34" s="50"/>
+      <c r="D34" s="49"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="36">
+      <c r="A35" s="35">
         <v>23</v>
       </c>
-      <c r="B35" s="37"/>
+      <c r="B35" s="36"/>
       <c r="C35" s="21"/>
-      <c r="D35" s="50"/>
+      <c r="D35" s="49"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="36">
+      <c r="A36" s="35">
         <v>24</v>
       </c>
-      <c r="B36" s="37"/>
+      <c r="B36" s="36"/>
       <c r="C36" s="21"/>
-      <c r="D36" s="50"/>
+      <c r="D36" s="49"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="36">
+      <c r="A37" s="35">
         <v>25</v>
       </c>
-      <c r="B37" s="37"/>
+      <c r="B37" s="36"/>
       <c r="C37" s="21"/>
-      <c r="D37" s="50"/>
+      <c r="D37" s="49"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="36">
+      <c r="A38" s="35">
         <v>26</v>
       </c>
-      <c r="B38" s="37"/>
+      <c r="B38" s="36"/>
       <c r="C38" s="21"/>
-      <c r="D38" s="50"/>
+      <c r="D38" s="49"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="36">
+      <c r="A39" s="35">
         <v>27</v>
       </c>
-      <c r="B39" s="37"/>
+      <c r="B39" s="36"/>
       <c r="C39" s="21"/>
-      <c r="D39" s="50"/>
+      <c r="D39" s="49"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="36">
+      <c r="A40" s="35">
         <v>28</v>
       </c>
-      <c r="B40" s="37"/>
+      <c r="B40" s="36"/>
       <c r="C40" s="21"/>
-      <c r="D40" s="50"/>
+      <c r="D40" s="49"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="36">
+      <c r="A41" s="35">
         <v>29</v>
       </c>
-      <c r="B41" s="37"/>
+      <c r="B41" s="36"/>
       <c r="C41" s="21"/>
-      <c r="D41" s="50"/>
+      <c r="D41" s="49"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="36">
+      <c r="A42" s="35">
         <v>30</v>
       </c>
-      <c r="B42" s="37"/>
+      <c r="B42" s="36"/>
       <c r="C42" s="21"/>
-      <c r="D42" s="50"/>
+      <c r="D42" s="49"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="36">
+      <c r="A43" s="35">
         <v>31</v>
       </c>
-      <c r="B43" s="37"/>
+      <c r="B43" s="36"/>
       <c r="C43" s="21"/>
-      <c r="D43" s="50"/>
+      <c r="D43" s="49"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="36">
+      <c r="A44" s="35">
         <v>32</v>
       </c>
-      <c r="B44" s="37"/>
+      <c r="B44" s="36"/>
       <c r="C44" s="21"/>
-      <c r="D44" s="50"/>
+      <c r="D44" s="49"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="36">
+      <c r="A45" s="35">
         <v>33</v>
       </c>
-      <c r="B45" s="37"/>
+      <c r="B45" s="36"/>
       <c r="C45" s="21"/>
-      <c r="D45" s="50"/>
+      <c r="D45" s="49"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="36">
+      <c r="A46" s="35">
         <v>34</v>
       </c>
-      <c r="B46" s="37"/>
+      <c r="B46" s="36"/>
       <c r="C46" s="21"/>
-      <c r="D46" s="50"/>
+      <c r="D46" s="49"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="36">
+      <c r="A47" s="35">
         <v>35</v>
       </c>
-      <c r="B47" s="37"/>
+      <c r="B47" s="36"/>
       <c r="C47" s="21"/>
-      <c r="D47" s="50"/>
+      <c r="D47" s="49"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="36">
+      <c r="A48" s="35">
         <v>36</v>
       </c>
-      <c r="B48" s="37"/>
+      <c r="B48" s="36"/>
       <c r="C48" s="21"/>
-      <c r="D48" s="50"/>
+      <c r="D48" s="49"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="36">
+      <c r="A49" s="35">
         <v>37</v>
       </c>
-      <c r="B49" s="37"/>
+      <c r="B49" s="36"/>
       <c r="C49" s="21"/>
-      <c r="D49" s="50"/>
+      <c r="D49" s="49"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="36">
+      <c r="A50" s="35">
         <v>38</v>
       </c>
-      <c r="B50" s="37"/>
+      <c r="B50" s="36"/>
       <c r="C50" s="21"/>
-      <c r="D50" s="50"/>
+      <c r="D50" s="49"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="36">
+      <c r="A51" s="35">
         <v>39</v>
       </c>
-      <c r="B51" s="37"/>
+      <c r="B51" s="36"/>
       <c r="C51" s="21"/>
-      <c r="D51" s="50"/>
+      <c r="D51" s="49"/>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="36">
+      <c r="A52" s="35">
         <v>40</v>
       </c>
-      <c r="B52" s="37"/>
+      <c r="B52" s="36"/>
       <c r="C52" s="21"/>
-      <c r="D52" s="50"/>
+      <c r="D52" s="49"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="36">
+      <c r="A53" s="35">
         <v>41</v>
       </c>
-      <c r="B53" s="37"/>
+      <c r="B53" s="36"/>
       <c r="C53" s="21"/>
-      <c r="D53" s="50"/>
+      <c r="D53" s="49"/>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="36">
+      <c r="A54" s="35">
         <v>42</v>
       </c>
-      <c r="B54" s="37"/>
+      <c r="B54" s="36"/>
       <c r="C54" s="21"/>
-      <c r="D54" s="50"/>
+      <c r="D54" s="49"/>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="36">
+      <c r="A55" s="35">
         <v>43</v>
       </c>
-      <c r="B55" s="37"/>
+      <c r="B55" s="36"/>
       <c r="C55" s="21"/>
-      <c r="D55" s="50"/>
+      <c r="D55" s="49"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="36">
+      <c r="A56" s="35">
         <v>44</v>
       </c>
-      <c r="B56" s="37"/>
+      <c r="B56" s="36"/>
       <c r="C56" s="21"/>
-      <c r="D56" s="50"/>
+      <c r="D56" s="49"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="36">
+      <c r="A57" s="35">
         <v>45</v>
       </c>
-      <c r="B57" s="37"/>
+      <c r="B57" s="36"/>
       <c r="C57" s="21"/>
-      <c r="D57" s="50"/>
+      <c r="D57" s="49"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="36">
+      <c r="A58" s="35">
         <v>46</v>
       </c>
-      <c r="B58" s="37"/>
+      <c r="B58" s="36"/>
       <c r="C58" s="21"/>
-      <c r="D58" s="50"/>
+      <c r="D58" s="49"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="36">
+      <c r="A59" s="35">
         <v>47</v>
       </c>
-      <c r="B59" s="37"/>
+      <c r="B59" s="36"/>
       <c r="C59" s="21"/>
-      <c r="D59" s="50"/>
+      <c r="D59" s="49"/>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="36">
+      <c r="A60" s="35">
         <v>48</v>
       </c>
-      <c r="B60" s="37"/>
+      <c r="B60" s="36"/>
       <c r="C60" s="21"/>
-      <c r="D60" s="50"/>
+      <c r="D60" s="49"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="36">
+      <c r="A61" s="35">
         <v>49</v>
       </c>
-      <c r="B61" s="37"/>
+      <c r="B61" s="36"/>
       <c r="C61" s="21"/>
-      <c r="D61" s="50"/>
+      <c r="D61" s="49"/>
     </row>
     <row r="62" spans="1:4" ht="17.25" thickBot="1">
-      <c r="A62" s="38">
+      <c r="A62" s="37">
         <v>50</v>
       </c>
-      <c r="B62" s="39"/>
-      <c r="C62" s="44"/>
-      <c r="D62" s="51"/>
+      <c r="B62" s="38"/>
+      <c r="C62" s="43"/>
+      <c r="D62" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/SiteCategoryOperation/ツール専用サイトカテゴリ設計書.xlsx
+++ b/SiteCategoryOperation/ツール専用サイトカテゴリ設計書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13035" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13035" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="114">
   <si>
     <t>文書ＩＤ：</t>
     <rPh sb="0" eb="2">
@@ -661,6 +661,18 @@
     <rPh sb="15" eb="16">
       <t>メイ</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>cat01</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>cat01</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>テスティド</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1539,6 +1551,27 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1656,6 +1689,15 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1681,36 +1723,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2180,512 +2192,512 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="63"/>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
+      <c r="A1" s="70"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
+      <c r="A2" s="70"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="63"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
+      <c r="A3" s="70"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="63"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="63"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="70"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="63"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="63"/>
-      <c r="N5" s="63"/>
+      <c r="A5" s="70"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
     </row>
     <row r="6" spans="1:14" ht="33">
-      <c r="A6" s="70" t="s">
+      <c r="A6" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="70"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
-      <c r="N6" s="70"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="77"/>
+      <c r="N6" s="77"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="69"/>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
-      <c r="N7" s="69"/>
+      <c r="A7" s="76"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
+      <c r="L7" s="76"/>
+      <c r="M7" s="76"/>
+      <c r="N7" s="76"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="63"/>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="63"/>
-      <c r="L8" s="63"/>
-      <c r="M8" s="63"/>
-      <c r="N8" s="63"/>
+      <c r="A8" s="70"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="70"/>
+      <c r="N8" s="70"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="63"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63"/>
-      <c r="L9" s="63"/>
-      <c r="M9" s="63"/>
-      <c r="N9" s="63"/>
+      <c r="A9" s="70"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="70"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="63"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="63"/>
-      <c r="L10" s="63"/>
-      <c r="M10" s="63"/>
-      <c r="N10" s="63"/>
+      <c r="A10" s="70"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="70"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="63"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="63"/>
-      <c r="M11" s="63"/>
-      <c r="N11" s="63"/>
+      <c r="A11" s="70"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="70"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="63"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="63"/>
-      <c r="M12" s="63"/>
-      <c r="N12" s="63"/>
+      <c r="A12" s="70"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="70"/>
+      <c r="N12" s="70"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="63"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="63"/>
+      <c r="A13" s="70"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="70"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="63"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
-      <c r="L14" s="63"/>
-      <c r="M14" s="63"/>
-      <c r="N14" s="63"/>
+      <c r="A14" s="70"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="70"/>
+      <c r="L14" s="70"/>
+      <c r="M14" s="70"/>
+      <c r="N14" s="70"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="63"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="63"/>
+      <c r="A15" s="70"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="70"/>
+      <c r="N15" s="70"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="63"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="63"/>
-      <c r="L16" s="63"/>
-      <c r="M16" s="63"/>
-      <c r="N16" s="63"/>
+      <c r="A16" s="70"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="70"/>
+      <c r="N16" s="70"/>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="63"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="63"/>
+      <c r="A17" s="70"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="70"/>
+      <c r="N17" s="70"/>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="63"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="63"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="63"/>
-      <c r="M18" s="63"/>
-      <c r="N18" s="63"/>
+      <c r="A18" s="70"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="70"/>
+      <c r="L18" s="70"/>
+      <c r="M18" s="70"/>
+      <c r="N18" s="70"/>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="63"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="63"/>
+      <c r="A19" s="70"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="70"/>
+      <c r="L19" s="70"/>
+      <c r="M19" s="70"/>
+      <c r="N19" s="70"/>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="63"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="63"/>
-      <c r="K20" s="63"/>
-      <c r="L20" s="63"/>
-      <c r="M20" s="63"/>
-      <c r="N20" s="63"/>
+      <c r="A20" s="70"/>
+      <c r="B20" s="70"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="70"/>
+      <c r="N20" s="70"/>
     </row>
     <row r="21" spans="1:14">
-      <c r="I21" s="65" t="s">
+      <c r="I21" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="J21" s="65"/>
-      <c r="K21" s="65"/>
-      <c r="L21" s="64"/>
-      <c r="M21" s="64"/>
-      <c r="N21" s="64"/>
+      <c r="J21" s="72"/>
+      <c r="K21" s="72"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="71"/>
+      <c r="N21" s="71"/>
     </row>
     <row r="22" spans="1:14">
-      <c r="I22" s="65" t="s">
+      <c r="I22" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="J22" s="65"/>
-      <c r="K22" s="65"/>
-      <c r="L22" s="68"/>
-      <c r="M22" s="68"/>
-      <c r="N22" s="68"/>
+      <c r="J22" s="72"/>
+      <c r="K22" s="72"/>
+      <c r="L22" s="75"/>
+      <c r="M22" s="75"/>
+      <c r="N22" s="75"/>
     </row>
     <row r="23" spans="1:14">
-      <c r="I23" s="65" t="s">
+      <c r="I23" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="67" t="s">
+      <c r="J23" s="72"/>
+      <c r="K23" s="72"/>
+      <c r="L23" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="M23" s="67"/>
-      <c r="N23" s="67"/>
+      <c r="M23" s="74"/>
+      <c r="N23" s="74"/>
     </row>
     <row r="24" spans="1:14">
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="64"/>
-      <c r="M24" s="64"/>
-      <c r="N24" s="64"/>
+      <c r="I24" s="72"/>
+      <c r="J24" s="72"/>
+      <c r="K24" s="72"/>
+      <c r="L24" s="71"/>
+      <c r="M24" s="71"/>
+      <c r="N24" s="71"/>
     </row>
     <row r="25" spans="1:14">
-      <c r="I25" s="65"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="65"/>
-      <c r="L25" s="64"/>
-      <c r="M25" s="64"/>
-      <c r="N25" s="64"/>
+      <c r="I25" s="72"/>
+      <c r="J25" s="72"/>
+      <c r="K25" s="72"/>
+      <c r="L25" s="71"/>
+      <c r="M25" s="71"/>
+      <c r="N25" s="71"/>
     </row>
     <row r="26" spans="1:14">
-      <c r="I26" s="65"/>
-      <c r="J26" s="65"/>
-      <c r="K26" s="65"/>
-      <c r="L26" s="64"/>
-      <c r="M26" s="64"/>
-      <c r="N26" s="64"/>
+      <c r="I26" s="72"/>
+      <c r="J26" s="72"/>
+      <c r="K26" s="72"/>
+      <c r="L26" s="71"/>
+      <c r="M26" s="71"/>
+      <c r="N26" s="71"/>
     </row>
     <row r="27" spans="1:14">
-      <c r="I27" s="65" t="s">
+      <c r="I27" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="J27" s="65"/>
-      <c r="K27" s="65"/>
-      <c r="L27" s="66">
+      <c r="J27" s="72"/>
+      <c r="K27" s="72"/>
+      <c r="L27" s="73">
         <f>変更履歴!C4</f>
         <v>43441</v>
       </c>
-      <c r="M27" s="64"/>
-      <c r="N27" s="64"/>
+      <c r="M27" s="71"/>
+      <c r="N27" s="71"/>
     </row>
     <row r="28" spans="1:14">
-      <c r="I28" s="65" t="s">
+      <c r="I28" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="J28" s="65"/>
-      <c r="K28" s="65"/>
-      <c r="L28" s="66">
+      <c r="J28" s="72"/>
+      <c r="K28" s="72"/>
+      <c r="L28" s="73">
         <f>IF(MAX(変更履歴!C9:C28)=0,"",MAX(変更履歴!C9:C28))</f>
         <v>43441</v>
       </c>
-      <c r="M28" s="64"/>
-      <c r="N28" s="64"/>
+      <c r="M28" s="71"/>
+      <c r="N28" s="71"/>
     </row>
     <row r="29" spans="1:14">
-      <c r="I29" s="64"/>
-      <c r="J29" s="64"/>
-      <c r="K29" s="64"/>
-      <c r="L29" s="64"/>
-      <c r="M29" s="64"/>
-      <c r="N29" s="64"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="71"/>
+      <c r="K29" s="71"/>
+      <c r="L29" s="71"/>
+      <c r="M29" s="71"/>
+      <c r="N29" s="71"/>
     </row>
     <row r="30" spans="1:14">
-      <c r="I30" s="64"/>
-      <c r="J30" s="64"/>
-      <c r="K30" s="64"/>
-      <c r="L30" s="64"/>
-      <c r="M30" s="64"/>
-      <c r="N30" s="64"/>
+      <c r="I30" s="71"/>
+      <c r="J30" s="71"/>
+      <c r="K30" s="71"/>
+      <c r="L30" s="71"/>
+      <c r="M30" s="71"/>
+      <c r="N30" s="71"/>
     </row>
     <row r="31" spans="1:14">
-      <c r="I31" s="64"/>
-      <c r="J31" s="64"/>
-      <c r="K31" s="64"/>
-      <c r="L31" s="64"/>
-      <c r="M31" s="64"/>
-      <c r="N31" s="64"/>
+      <c r="I31" s="71"/>
+      <c r="J31" s="71"/>
+      <c r="K31" s="71"/>
+      <c r="L31" s="71"/>
+      <c r="M31" s="71"/>
+      <c r="N31" s="71"/>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="63"/>
-      <c r="B32" s="63"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="63"/>
-      <c r="J32" s="63"/>
-      <c r="K32" s="63"/>
-      <c r="L32" s="63"/>
-      <c r="M32" s="63"/>
-      <c r="N32" s="63"/>
+      <c r="A32" s="70"/>
+      <c r="B32" s="70"/>
+      <c r="C32" s="70"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="70"/>
+      <c r="H32" s="70"/>
+      <c r="I32" s="70"/>
+      <c r="J32" s="70"/>
+      <c r="K32" s="70"/>
+      <c r="L32" s="70"/>
+      <c r="M32" s="70"/>
+      <c r="N32" s="70"/>
     </row>
     <row r="33" spans="1:14">
-      <c r="A33" s="63"/>
-      <c r="B33" s="63"/>
-      <c r="C33" s="63"/>
-      <c r="D33" s="63"/>
-      <c r="E33" s="63"/>
-      <c r="F33" s="63"/>
-      <c r="G33" s="63"/>
-      <c r="H33" s="63"/>
-      <c r="I33" s="63"/>
-      <c r="J33" s="63"/>
-      <c r="K33" s="63"/>
-      <c r="L33" s="63"/>
-      <c r="M33" s="63"/>
-      <c r="N33" s="63"/>
+      <c r="A33" s="70"/>
+      <c r="B33" s="70"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="70"/>
+      <c r="E33" s="70"/>
+      <c r="F33" s="70"/>
+      <c r="G33" s="70"/>
+      <c r="H33" s="70"/>
+      <c r="I33" s="70"/>
+      <c r="J33" s="70"/>
+      <c r="K33" s="70"/>
+      <c r="L33" s="70"/>
+      <c r="M33" s="70"/>
+      <c r="N33" s="70"/>
     </row>
     <row r="34" spans="1:14">
-      <c r="A34" s="63"/>
-      <c r="B34" s="63"/>
-      <c r="C34" s="63"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="63"/>
-      <c r="F34" s="63"/>
-      <c r="G34" s="63"/>
-      <c r="H34" s="63"/>
-      <c r="I34" s="63"/>
-      <c r="J34" s="63"/>
-      <c r="K34" s="63"/>
-      <c r="L34" s="63"/>
-      <c r="M34" s="63"/>
-      <c r="N34" s="63"/>
+      <c r="A34" s="70"/>
+      <c r="B34" s="70"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="70"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="70"/>
+      <c r="H34" s="70"/>
+      <c r="I34" s="70"/>
+      <c r="J34" s="70"/>
+      <c r="K34" s="70"/>
+      <c r="L34" s="70"/>
+      <c r="M34" s="70"/>
+      <c r="N34" s="70"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="A35" s="63"/>
-      <c r="B35" s="63"/>
-      <c r="C35" s="63"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="63"/>
-      <c r="F35" s="63"/>
-      <c r="G35" s="63"/>
-      <c r="H35" s="63"/>
-      <c r="I35" s="63"/>
-      <c r="J35" s="63"/>
-      <c r="K35" s="63"/>
-      <c r="L35" s="63"/>
-      <c r="M35" s="63"/>
-      <c r="N35" s="63"/>
+      <c r="A35" s="70"/>
+      <c r="B35" s="70"/>
+      <c r="C35" s="70"/>
+      <c r="D35" s="70"/>
+      <c r="E35" s="70"/>
+      <c r="F35" s="70"/>
+      <c r="G35" s="70"/>
+      <c r="H35" s="70"/>
+      <c r="I35" s="70"/>
+      <c r="J35" s="70"/>
+      <c r="K35" s="70"/>
+      <c r="L35" s="70"/>
+      <c r="M35" s="70"/>
+      <c r="N35" s="70"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="63"/>
-      <c r="B36" s="63"/>
-      <c r="C36" s="63"/>
-      <c r="D36" s="63"/>
-      <c r="E36" s="63"/>
-      <c r="F36" s="63"/>
-      <c r="G36" s="63"/>
-      <c r="H36" s="63"/>
-      <c r="I36" s="63"/>
-      <c r="J36" s="63"/>
-      <c r="K36" s="63"/>
-      <c r="L36" s="63"/>
-      <c r="M36" s="63"/>
-      <c r="N36" s="63"/>
+      <c r="A36" s="70"/>
+      <c r="B36" s="70"/>
+      <c r="C36" s="70"/>
+      <c r="D36" s="70"/>
+      <c r="E36" s="70"/>
+      <c r="F36" s="70"/>
+      <c r="G36" s="70"/>
+      <c r="H36" s="70"/>
+      <c r="I36" s="70"/>
+      <c r="J36" s="70"/>
+      <c r="K36" s="70"/>
+      <c r="L36" s="70"/>
+      <c r="M36" s="70"/>
+      <c r="N36" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="47">
@@ -2978,7 +2990,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AF62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="Y17" sqref="Y17"/>
     </sheetView>
   </sheetViews>
@@ -3002,24 +3014,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="16.5">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="95" t="s">
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="102" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="97"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="104"/>
       <c r="O1" s="54" t="s">
         <v>37</v>
       </c>
@@ -3034,24 +3046,24 @@
       </c>
     </row>
     <row r="2" spans="1:32" ht="17.25" thickBot="1">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="98" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="100"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="106"/>
+      <c r="N2" s="107"/>
       <c r="O2" s="52"/>
       <c r="P2" s="33">
         <v>43441</v>
@@ -3060,227 +3072,227 @@
       <c r="R2" s="53"/>
     </row>
     <row r="3" spans="1:32" ht="16.5">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="86"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="86"/>
-      <c r="Q3" s="86"/>
-      <c r="R3" s="87"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="93"/>
+      <c r="P3" s="93"/>
+      <c r="Q3" s="93"/>
+      <c r="R3" s="94"/>
     </row>
     <row r="4" spans="1:32" ht="16.5">
-      <c r="A4" s="71"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="72"/>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="72"/>
-      <c r="R4" s="73"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="79"/>
+      <c r="O4" s="79"/>
+      <c r="P4" s="79"/>
+      <c r="Q4" s="79"/>
+      <c r="R4" s="80"/>
     </row>
     <row r="5" spans="1:32" ht="16.5">
-      <c r="A5" s="71"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="73"/>
+      <c r="A5" s="78"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="79"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="80"/>
     </row>
     <row r="6" spans="1:32" ht="16.5">
-      <c r="A6" s="71"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="72"/>
-      <c r="P6" s="72"/>
-      <c r="Q6" s="72"/>
-      <c r="R6" s="73"/>
+      <c r="A6" s="78"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="79"/>
+      <c r="N6" s="79"/>
+      <c r="O6" s="79"/>
+      <c r="P6" s="79"/>
+      <c r="Q6" s="79"/>
+      <c r="R6" s="80"/>
     </row>
     <row r="7" spans="1:32" ht="16.5">
-      <c r="A7" s="71"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="72"/>
-      <c r="N7" s="72"/>
-      <c r="O7" s="72"/>
-      <c r="P7" s="72"/>
-      <c r="Q7" s="72"/>
-      <c r="R7" s="73"/>
+      <c r="A7" s="78"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
+      <c r="L7" s="79"/>
+      <c r="M7" s="79"/>
+      <c r="N7" s="79"/>
+      <c r="O7" s="79"/>
+      <c r="P7" s="79"/>
+      <c r="Q7" s="79"/>
+      <c r="R7" s="80"/>
     </row>
     <row r="8" spans="1:32" ht="16.5">
-      <c r="A8" s="71"/>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="72"/>
-      <c r="M8" s="72"/>
-      <c r="N8" s="72"/>
-      <c r="O8" s="72"/>
-      <c r="P8" s="72"/>
-      <c r="Q8" s="72"/>
-      <c r="R8" s="73"/>
+      <c r="A8" s="78"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="79"/>
+      <c r="K8" s="79"/>
+      <c r="L8" s="79"/>
+      <c r="M8" s="79"/>
+      <c r="N8" s="79"/>
+      <c r="O8" s="79"/>
+      <c r="P8" s="79"/>
+      <c r="Q8" s="79"/>
+      <c r="R8" s="80"/>
     </row>
     <row r="9" spans="1:32" ht="17.25" thickBot="1">
-      <c r="A9" s="74"/>
-      <c r="B9" s="75"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="75"/>
-      <c r="L9" s="75"/>
-      <c r="M9" s="75"/>
-      <c r="N9" s="75"/>
-      <c r="O9" s="75"/>
-      <c r="P9" s="75"/>
-      <c r="Q9" s="75"/>
-      <c r="R9" s="76"/>
+      <c r="A9" s="81"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="82"/>
+      <c r="L9" s="82"/>
+      <c r="M9" s="82"/>
+      <c r="N9" s="82"/>
+      <c r="O9" s="82"/>
+      <c r="P9" s="82"/>
+      <c r="Q9" s="82"/>
+      <c r="R9" s="83"/>
     </row>
     <row r="10" spans="1:32" ht="17.25" thickBot="1">
-      <c r="A10" s="92" t="s">
+      <c r="A10" s="99" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="93"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="93"/>
-      <c r="F10" s="93"/>
-      <c r="G10" s="93"/>
-      <c r="H10" s="93"/>
-      <c r="I10" s="93"/>
-      <c r="J10" s="93"/>
-      <c r="K10" s="93"/>
-      <c r="L10" s="93"/>
-      <c r="M10" s="93"/>
-      <c r="N10" s="93"/>
-      <c r="O10" s="93"/>
-      <c r="P10" s="93"/>
-      <c r="Q10" s="93"/>
-      <c r="R10" s="93"/>
-      <c r="S10" s="93"/>
-      <c r="T10" s="93"/>
-      <c r="U10" s="93"/>
-      <c r="V10" s="93"/>
-      <c r="W10" s="94"/>
-      <c r="X10" s="115"/>
-      <c r="Y10" s="115"/>
-      <c r="Z10" s="115"/>
-      <c r="AA10" s="77" t="s">
+      <c r="B10" s="100"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="100"/>
+      <c r="J10" s="100"/>
+      <c r="K10" s="100"/>
+      <c r="L10" s="100"/>
+      <c r="M10" s="100"/>
+      <c r="N10" s="100"/>
+      <c r="O10" s="100"/>
+      <c r="P10" s="100"/>
+      <c r="Q10" s="100"/>
+      <c r="R10" s="100"/>
+      <c r="S10" s="100"/>
+      <c r="T10" s="100"/>
+      <c r="U10" s="100"/>
+      <c r="V10" s="100"/>
+      <c r="W10" s="101"/>
+      <c r="X10" s="67"/>
+      <c r="Y10" s="67"/>
+      <c r="Z10" s="67"/>
+      <c r="AA10" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="AB10" s="77"/>
-      <c r="AC10" s="77"/>
-      <c r="AD10" s="77"/>
-      <c r="AE10" s="77"/>
-      <c r="AF10" s="78"/>
+      <c r="AB10" s="84"/>
+      <c r="AC10" s="84"/>
+      <c r="AD10" s="84"/>
+      <c r="AE10" s="84"/>
+      <c r="AF10" s="85"/>
     </row>
     <row r="11" spans="1:32" s="20" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A11" s="90" t="s">
+      <c r="A11" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="101" t="s">
+      <c r="B11" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="79"/>
-      <c r="K11" s="80"/>
-      <c r="L11" s="88" t="s">
+      <c r="C11" s="86"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="86"/>
+      <c r="K11" s="87"/>
+      <c r="L11" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="M11" s="88"/>
-      <c r="N11" s="88"/>
-      <c r="O11" s="88"/>
-      <c r="P11" s="88"/>
-      <c r="Q11" s="88"/>
-      <c r="R11" s="88"/>
-      <c r="S11" s="88"/>
-      <c r="T11" s="88"/>
-      <c r="U11" s="88" t="s">
+      <c r="M11" s="95"/>
+      <c r="N11" s="95"/>
+      <c r="O11" s="95"/>
+      <c r="P11" s="95"/>
+      <c r="Q11" s="95"/>
+      <c r="R11" s="95"/>
+      <c r="S11" s="95"/>
+      <c r="T11" s="95"/>
+      <c r="U11" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="V11" s="88"/>
-      <c r="W11" s="89"/>
-      <c r="X11" s="116" t="s">
+      <c r="V11" s="95"/>
+      <c r="W11" s="96"/>
+      <c r="X11" s="109" t="s">
         <v>105</v>
       </c>
-      <c r="Y11" s="117"/>
-      <c r="Z11" s="118"/>
-      <c r="AA11" s="79" t="s">
+      <c r="Y11" s="110"/>
+      <c r="Z11" s="111"/>
+      <c r="AA11" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="AB11" s="80"/>
-      <c r="AC11" s="81" t="s">
+      <c r="AB11" s="87"/>
+      <c r="AC11" s="88" t="s">
         <v>34</v>
       </c>
       <c r="AD11" s="30"/>
@@ -3288,7 +3300,7 @@
       <c r="AF11" s="31"/>
     </row>
     <row r="12" spans="1:32" s="20" customFormat="1" ht="33.75" thickBot="1">
-      <c r="A12" s="91"/>
+      <c r="A12" s="98"/>
       <c r="B12" s="55" t="s">
         <v>43</v>
       </c>
@@ -3355,13 +3367,13 @@
       <c r="W12" s="29">
         <v>3</v>
       </c>
-      <c r="X12" s="119" t="s">
+      <c r="X12" s="68" t="s">
         <v>106</v>
       </c>
-      <c r="Y12" s="120" t="s">
+      <c r="Y12" s="69" t="s">
         <v>107</v>
       </c>
-      <c r="Z12" s="120" t="s">
+      <c r="Z12" s="69" t="s">
         <v>108</v>
       </c>
       <c r="AA12" s="28" t="s">
@@ -3370,7 +3382,7 @@
       <c r="AB12" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="AC12" s="82"/>
+      <c r="AC12" s="89"/>
       <c r="AD12" s="26"/>
       <c r="AE12" s="26"/>
       <c r="AF12" s="27"/>
@@ -3422,8 +3434,8 @@
       <c r="T13" s="24"/>
       <c r="U13" s="24"/>
       <c r="V13" s="24"/>
-      <c r="W13" s="113"/>
-      <c r="X13" s="111"/>
+      <c r="W13" s="65"/>
+      <c r="X13" s="63"/>
       <c r="Y13" s="24"/>
       <c r="Z13" s="24"/>
       <c r="AA13" s="24"/>
@@ -3476,8 +3488,8 @@
       <c r="T14" s="21"/>
       <c r="U14" s="21"/>
       <c r="V14" s="21"/>
-      <c r="W14" s="114"/>
-      <c r="X14" s="112"/>
+      <c r="W14" s="66"/>
+      <c r="X14" s="64"/>
       <c r="Y14" s="21"/>
       <c r="Z14" s="21"/>
       <c r="AA14" s="21"/>
@@ -3530,8 +3542,8 @@
       <c r="T15" s="21"/>
       <c r="U15" s="21"/>
       <c r="V15" s="21"/>
-      <c r="W15" s="114"/>
-      <c r="X15" s="112"/>
+      <c r="W15" s="66"/>
+      <c r="X15" s="64"/>
       <c r="Y15" s="21"/>
       <c r="Z15" s="21"/>
       <c r="AA15" s="21"/>
@@ -3584,8 +3596,8 @@
       <c r="T16" s="21"/>
       <c r="U16" s="21"/>
       <c r="V16" s="21"/>
-      <c r="W16" s="114"/>
-      <c r="X16" s="112"/>
+      <c r="W16" s="66"/>
+      <c r="X16" s="64"/>
       <c r="Y16" s="21"/>
       <c r="Z16" s="21"/>
       <c r="AA16" s="21"/>
@@ -3638,8 +3650,8 @@
       <c r="T17" s="21"/>
       <c r="U17" s="21"/>
       <c r="V17" s="21"/>
-      <c r="W17" s="114"/>
-      <c r="X17" s="112"/>
+      <c r="W17" s="66"/>
+      <c r="X17" s="64"/>
       <c r="Y17" s="21"/>
       <c r="Z17" s="21"/>
       <c r="AA17" s="21"/>
@@ -3692,8 +3704,8 @@
       <c r="T18" s="21"/>
       <c r="U18" s="21"/>
       <c r="V18" s="21"/>
-      <c r="W18" s="114"/>
-      <c r="X18" s="112"/>
+      <c r="W18" s="66"/>
+      <c r="X18" s="64"/>
       <c r="Y18" s="21"/>
       <c r="Z18" s="21"/>
       <c r="AA18" s="21"/>
@@ -3746,8 +3758,8 @@
       <c r="T19" s="21"/>
       <c r="U19" s="21"/>
       <c r="V19" s="21"/>
-      <c r="W19" s="114"/>
-      <c r="X19" s="112"/>
+      <c r="W19" s="66"/>
+      <c r="X19" s="64"/>
       <c r="Y19" s="21"/>
       <c r="Z19" s="21"/>
       <c r="AA19" s="21"/>
@@ -3782,8 +3794,8 @@
       <c r="T20" s="21"/>
       <c r="U20" s="21"/>
       <c r="V20" s="21"/>
-      <c r="W20" s="114"/>
-      <c r="X20" s="112"/>
+      <c r="W20" s="66"/>
+      <c r="X20" s="64"/>
       <c r="Y20" s="21"/>
       <c r="Z20" s="21"/>
       <c r="AA20" s="21"/>
@@ -3818,8 +3830,8 @@
       <c r="T21" s="34"/>
       <c r="U21" s="21"/>
       <c r="V21" s="21"/>
-      <c r="W21" s="114"/>
-      <c r="X21" s="112"/>
+      <c r="W21" s="66"/>
+      <c r="X21" s="64"/>
       <c r="Y21" s="21"/>
       <c r="Z21" s="21"/>
       <c r="AA21" s="21"/>
@@ -3854,8 +3866,8 @@
       <c r="T22" s="21"/>
       <c r="U22" s="21"/>
       <c r="V22" s="21"/>
-      <c r="W22" s="114"/>
-      <c r="X22" s="112"/>
+      <c r="W22" s="66"/>
+      <c r="X22" s="64"/>
       <c r="Y22" s="21"/>
       <c r="Z22" s="21"/>
       <c r="AA22" s="21"/>
@@ -3890,8 +3902,8 @@
       <c r="T23" s="21"/>
       <c r="U23" s="21"/>
       <c r="V23" s="21"/>
-      <c r="W23" s="114"/>
-      <c r="X23" s="112"/>
+      <c r="W23" s="66"/>
+      <c r="X23" s="64"/>
       <c r="Y23" s="21"/>
       <c r="Z23" s="21"/>
       <c r="AA23" s="21"/>
@@ -3926,8 +3938,8 @@
       <c r="T24" s="21"/>
       <c r="U24" s="21"/>
       <c r="V24" s="21"/>
-      <c r="W24" s="114"/>
-      <c r="X24" s="112"/>
+      <c r="W24" s="66"/>
+      <c r="X24" s="64"/>
       <c r="Y24" s="21"/>
       <c r="Z24" s="21"/>
       <c r="AA24" s="21"/>
@@ -3962,8 +3974,8 @@
       <c r="T25" s="21"/>
       <c r="U25" s="24"/>
       <c r="V25" s="21"/>
-      <c r="W25" s="114"/>
-      <c r="X25" s="112"/>
+      <c r="W25" s="66"/>
+      <c r="X25" s="64"/>
       <c r="Y25" s="21"/>
       <c r="Z25" s="21"/>
       <c r="AA25" s="21"/>
@@ -3998,8 +4010,8 @@
       <c r="T26" s="21"/>
       <c r="U26" s="24"/>
       <c r="V26" s="21"/>
-      <c r="W26" s="114"/>
-      <c r="X26" s="112"/>
+      <c r="W26" s="66"/>
+      <c r="X26" s="64"/>
       <c r="Y26" s="21"/>
       <c r="Z26" s="21"/>
       <c r="AA26" s="21"/>
@@ -4034,8 +4046,8 @@
       <c r="T27" s="21"/>
       <c r="U27" s="24"/>
       <c r="V27" s="21"/>
-      <c r="W27" s="114"/>
-      <c r="X27" s="112"/>
+      <c r="W27" s="66"/>
+      <c r="X27" s="64"/>
       <c r="Y27" s="21"/>
       <c r="Z27" s="21"/>
       <c r="AA27" s="21"/>
@@ -4070,8 +4082,8 @@
       <c r="T28" s="21"/>
       <c r="U28" s="24"/>
       <c r="V28" s="21"/>
-      <c r="W28" s="114"/>
-      <c r="X28" s="112"/>
+      <c r="W28" s="66"/>
+      <c r="X28" s="64"/>
       <c r="Y28" s="21"/>
       <c r="Z28" s="21"/>
       <c r="AA28" s="21"/>
@@ -4106,8 +4118,8 @@
       <c r="T29" s="21"/>
       <c r="U29" s="24"/>
       <c r="V29" s="21"/>
-      <c r="W29" s="114"/>
-      <c r="X29" s="112"/>
+      <c r="W29" s="66"/>
+      <c r="X29" s="64"/>
       <c r="Y29" s="21"/>
       <c r="Z29" s="21"/>
       <c r="AA29" s="21"/>
@@ -4142,8 +4154,8 @@
       <c r="T30" s="21"/>
       <c r="U30" s="24"/>
       <c r="V30" s="21"/>
-      <c r="W30" s="114"/>
-      <c r="X30" s="112"/>
+      <c r="W30" s="66"/>
+      <c r="X30" s="64"/>
       <c r="Y30" s="21"/>
       <c r="Z30" s="21"/>
       <c r="AA30" s="21"/>
@@ -4178,8 +4190,8 @@
       <c r="T31" s="21"/>
       <c r="U31" s="24"/>
       <c r="V31" s="21"/>
-      <c r="W31" s="114"/>
-      <c r="X31" s="112"/>
+      <c r="W31" s="66"/>
+      <c r="X31" s="64"/>
       <c r="Y31" s="21"/>
       <c r="Z31" s="21"/>
       <c r="AA31" s="21"/>
@@ -4214,8 +4226,8 @@
       <c r="T32" s="23"/>
       <c r="U32" s="24"/>
       <c r="V32" s="21"/>
-      <c r="W32" s="114"/>
-      <c r="X32" s="112"/>
+      <c r="W32" s="66"/>
+      <c r="X32" s="64"/>
       <c r="Y32" s="21"/>
       <c r="Z32" s="21"/>
       <c r="AA32" s="21"/>
@@ -4250,8 +4262,8 @@
       <c r="T33" s="21"/>
       <c r="U33" s="21"/>
       <c r="V33" s="21"/>
-      <c r="W33" s="114"/>
-      <c r="X33" s="112"/>
+      <c r="W33" s="66"/>
+      <c r="X33" s="64"/>
       <c r="Y33" s="21"/>
       <c r="Z33" s="21"/>
       <c r="AA33" s="21"/>
@@ -4286,8 +4298,8 @@
       <c r="T34" s="21"/>
       <c r="U34" s="21"/>
       <c r="V34" s="21"/>
-      <c r="W34" s="114"/>
-      <c r="X34" s="112"/>
+      <c r="W34" s="66"/>
+      <c r="X34" s="64"/>
       <c r="Y34" s="21"/>
       <c r="Z34" s="21"/>
       <c r="AA34" s="21"/>
@@ -4322,8 +4334,8 @@
       <c r="T35" s="21"/>
       <c r="U35" s="21"/>
       <c r="V35" s="21"/>
-      <c r="W35" s="114"/>
-      <c r="X35" s="112"/>
+      <c r="W35" s="66"/>
+      <c r="X35" s="64"/>
       <c r="Y35" s="21"/>
       <c r="Z35" s="21"/>
       <c r="AA35" s="21"/>
@@ -4358,8 +4370,8 @@
       <c r="T36" s="21"/>
       <c r="U36" s="21"/>
       <c r="V36" s="21"/>
-      <c r="W36" s="114"/>
-      <c r="X36" s="112"/>
+      <c r="W36" s="66"/>
+      <c r="X36" s="64"/>
       <c r="Y36" s="21"/>
       <c r="Z36" s="21"/>
       <c r="AA36" s="21"/>
@@ -4394,8 +4406,8 @@
       <c r="T37" s="21"/>
       <c r="U37" s="21"/>
       <c r="V37" s="21"/>
-      <c r="W37" s="114"/>
-      <c r="X37" s="112"/>
+      <c r="W37" s="66"/>
+      <c r="X37" s="64"/>
       <c r="Y37" s="21"/>
       <c r="Z37" s="21"/>
       <c r="AA37" s="21"/>
@@ -4430,8 +4442,8 @@
       <c r="T38" s="21"/>
       <c r="U38" s="21"/>
       <c r="V38" s="21"/>
-      <c r="W38" s="114"/>
-      <c r="X38" s="112"/>
+      <c r="W38" s="66"/>
+      <c r="X38" s="64"/>
       <c r="Y38" s="21"/>
       <c r="Z38" s="21"/>
       <c r="AA38" s="21"/>
@@ -4466,8 +4478,8 @@
       <c r="T39" s="21"/>
       <c r="U39" s="21"/>
       <c r="V39" s="21"/>
-      <c r="W39" s="114"/>
-      <c r="X39" s="112"/>
+      <c r="W39" s="66"/>
+      <c r="X39" s="64"/>
       <c r="Y39" s="21"/>
       <c r="Z39" s="21"/>
       <c r="AA39" s="21"/>
@@ -4502,8 +4514,8 @@
       <c r="T40" s="21"/>
       <c r="U40" s="21"/>
       <c r="V40" s="21"/>
-      <c r="W40" s="114"/>
-      <c r="X40" s="112"/>
+      <c r="W40" s="66"/>
+      <c r="X40" s="64"/>
       <c r="Y40" s="21"/>
       <c r="Z40" s="21"/>
       <c r="AA40" s="21"/>
@@ -4538,8 +4550,8 @@
       <c r="T41" s="21"/>
       <c r="U41" s="21"/>
       <c r="V41" s="21"/>
-      <c r="W41" s="114"/>
-      <c r="X41" s="112"/>
+      <c r="W41" s="66"/>
+      <c r="X41" s="64"/>
       <c r="Y41" s="21"/>
       <c r="Z41" s="21"/>
       <c r="AA41" s="21"/>
@@ -4574,8 +4586,8 @@
       <c r="T42" s="21"/>
       <c r="U42" s="21"/>
       <c r="V42" s="21"/>
-      <c r="W42" s="114"/>
-      <c r="X42" s="112"/>
+      <c r="W42" s="66"/>
+      <c r="X42" s="64"/>
       <c r="Y42" s="21"/>
       <c r="Z42" s="21"/>
       <c r="AA42" s="21"/>
@@ -4610,8 +4622,8 @@
       <c r="T43" s="21"/>
       <c r="U43" s="21"/>
       <c r="V43" s="21"/>
-      <c r="W43" s="114"/>
-      <c r="X43" s="112"/>
+      <c r="W43" s="66"/>
+      <c r="X43" s="64"/>
       <c r="Y43" s="21"/>
       <c r="Z43" s="21"/>
       <c r="AA43" s="21"/>
@@ -4646,8 +4658,8 @@
       <c r="T44" s="21"/>
       <c r="U44" s="21"/>
       <c r="V44" s="21"/>
-      <c r="W44" s="114"/>
-      <c r="X44" s="112"/>
+      <c r="W44" s="66"/>
+      <c r="X44" s="64"/>
       <c r="Y44" s="21"/>
       <c r="Z44" s="21"/>
       <c r="AA44" s="21"/>
@@ -4682,8 +4694,8 @@
       <c r="T45" s="21"/>
       <c r="U45" s="21"/>
       <c r="V45" s="21"/>
-      <c r="W45" s="114"/>
-      <c r="X45" s="112"/>
+      <c r="W45" s="66"/>
+      <c r="X45" s="64"/>
       <c r="Y45" s="21"/>
       <c r="Z45" s="21"/>
       <c r="AA45" s="21"/>
@@ -4718,8 +4730,8 @@
       <c r="T46" s="21"/>
       <c r="U46" s="21"/>
       <c r="V46" s="21"/>
-      <c r="W46" s="114"/>
-      <c r="X46" s="112"/>
+      <c r="W46" s="66"/>
+      <c r="X46" s="64"/>
       <c r="Y46" s="21"/>
       <c r="Z46" s="21"/>
       <c r="AA46" s="21"/>
@@ -4754,8 +4766,8 @@
       <c r="T47" s="21"/>
       <c r="U47" s="21"/>
       <c r="V47" s="21"/>
-      <c r="W47" s="114"/>
-      <c r="X47" s="112"/>
+      <c r="W47" s="66"/>
+      <c r="X47" s="64"/>
       <c r="Y47" s="21"/>
       <c r="Z47" s="21"/>
       <c r="AA47" s="21"/>
@@ -4790,8 +4802,8 @@
       <c r="T48" s="21"/>
       <c r="U48" s="21"/>
       <c r="V48" s="21"/>
-      <c r="W48" s="114"/>
-      <c r="X48" s="112"/>
+      <c r="W48" s="66"/>
+      <c r="X48" s="64"/>
       <c r="Y48" s="21"/>
       <c r="Z48" s="21"/>
       <c r="AA48" s="21"/>
@@ -4826,8 +4838,8 @@
       <c r="T49" s="21"/>
       <c r="U49" s="21"/>
       <c r="V49" s="21"/>
-      <c r="W49" s="114"/>
-      <c r="X49" s="112"/>
+      <c r="W49" s="66"/>
+      <c r="X49" s="64"/>
       <c r="Y49" s="21"/>
       <c r="Z49" s="21"/>
       <c r="AA49" s="21"/>
@@ -4862,8 +4874,8 @@
       <c r="T50" s="21"/>
       <c r="U50" s="21"/>
       <c r="V50" s="21"/>
-      <c r="W50" s="114"/>
-      <c r="X50" s="112"/>
+      <c r="W50" s="66"/>
+      <c r="X50" s="64"/>
       <c r="Y50" s="21"/>
       <c r="Z50" s="21"/>
       <c r="AA50" s="21"/>
@@ -4898,8 +4910,8 @@
       <c r="T51" s="21"/>
       <c r="U51" s="21"/>
       <c r="V51" s="21"/>
-      <c r="W51" s="114"/>
-      <c r="X51" s="112"/>
+      <c r="W51" s="66"/>
+      <c r="X51" s="64"/>
       <c r="Y51" s="21"/>
       <c r="Z51" s="21"/>
       <c r="AA51" s="21"/>
@@ -4934,8 +4946,8 @@
       <c r="T52" s="21"/>
       <c r="U52" s="21"/>
       <c r="V52" s="21"/>
-      <c r="W52" s="114"/>
-      <c r="X52" s="112"/>
+      <c r="W52" s="66"/>
+      <c r="X52" s="64"/>
       <c r="Y52" s="21"/>
       <c r="Z52" s="21"/>
       <c r="AA52" s="21"/>
@@ -4970,8 +4982,8 @@
       <c r="T53" s="21"/>
       <c r="U53" s="21"/>
       <c r="V53" s="21"/>
-      <c r="W53" s="114"/>
-      <c r="X53" s="112"/>
+      <c r="W53" s="66"/>
+      <c r="X53" s="64"/>
       <c r="Y53" s="21"/>
       <c r="Z53" s="21"/>
       <c r="AA53" s="21"/>
@@ -5006,8 +5018,8 @@
       <c r="T54" s="21"/>
       <c r="U54" s="21"/>
       <c r="V54" s="21"/>
-      <c r="W54" s="114"/>
-      <c r="X54" s="112"/>
+      <c r="W54" s="66"/>
+      <c r="X54" s="64"/>
       <c r="Y54" s="21"/>
       <c r="Z54" s="21"/>
       <c r="AA54" s="21"/>
@@ -5042,8 +5054,8 @@
       <c r="T55" s="21"/>
       <c r="U55" s="21"/>
       <c r="V55" s="21"/>
-      <c r="W55" s="114"/>
-      <c r="X55" s="112"/>
+      <c r="W55" s="66"/>
+      <c r="X55" s="64"/>
       <c r="Y55" s="21"/>
       <c r="Z55" s="21"/>
       <c r="AA55" s="21"/>
@@ -5078,8 +5090,8 @@
       <c r="T56" s="21"/>
       <c r="U56" s="21"/>
       <c r="V56" s="21"/>
-      <c r="W56" s="114"/>
-      <c r="X56" s="112"/>
+      <c r="W56" s="66"/>
+      <c r="X56" s="64"/>
       <c r="Y56" s="21"/>
       <c r="Z56" s="21"/>
       <c r="AA56" s="21"/>
@@ -5114,8 +5126,8 @@
       <c r="T57" s="21"/>
       <c r="U57" s="21"/>
       <c r="V57" s="21"/>
-      <c r="W57" s="114"/>
-      <c r="X57" s="112"/>
+      <c r="W57" s="66"/>
+      <c r="X57" s="64"/>
       <c r="Y57" s="21"/>
       <c r="Z57" s="21"/>
       <c r="AA57" s="21"/>
@@ -5150,8 +5162,8 @@
       <c r="T58" s="21"/>
       <c r="U58" s="21"/>
       <c r="V58" s="21"/>
-      <c r="W58" s="114"/>
-      <c r="X58" s="112"/>
+      <c r="W58" s="66"/>
+      <c r="X58" s="64"/>
       <c r="Y58" s="21"/>
       <c r="Z58" s="21"/>
       <c r="AA58" s="21"/>
@@ -5186,8 +5198,8 @@
       <c r="T59" s="21"/>
       <c r="U59" s="21"/>
       <c r="V59" s="21"/>
-      <c r="W59" s="114"/>
-      <c r="X59" s="112"/>
+      <c r="W59" s="66"/>
+      <c r="X59" s="64"/>
       <c r="Y59" s="21"/>
       <c r="Z59" s="21"/>
       <c r="AA59" s="21"/>
@@ -5222,8 +5234,8 @@
       <c r="T60" s="21"/>
       <c r="U60" s="21"/>
       <c r="V60" s="21"/>
-      <c r="W60" s="114"/>
-      <c r="X60" s="112"/>
+      <c r="W60" s="66"/>
+      <c r="X60" s="64"/>
       <c r="Y60" s="21"/>
       <c r="Z60" s="21"/>
       <c r="AA60" s="21"/>
@@ -5258,8 +5270,8 @@
       <c r="T61" s="21"/>
       <c r="U61" s="21"/>
       <c r="V61" s="21"/>
-      <c r="W61" s="114"/>
-      <c r="X61" s="112"/>
+      <c r="W61" s="66"/>
+      <c r="X61" s="64"/>
       <c r="Y61" s="21"/>
       <c r="Z61" s="21"/>
       <c r="AA61" s="21"/>
@@ -5294,8 +5306,8 @@
       <c r="T62" s="21"/>
       <c r="U62" s="21"/>
       <c r="V62" s="21"/>
-      <c r="W62" s="114"/>
-      <c r="X62" s="112"/>
+      <c r="W62" s="66"/>
+      <c r="X62" s="64"/>
       <c r="Y62" s="21"/>
       <c r="Z62" s="21"/>
       <c r="AA62" s="21"/>
@@ -5349,8 +5361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -5370,18 +5382,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="95" t="s">
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="102" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="97"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="104"/>
       <c r="I1" s="61" t="s">
         <v>37</v>
       </c>
@@ -5396,18 +5408,18 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="98" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="100"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="107"/>
       <c r="I2" s="59"/>
       <c r="J2" s="33">
         <v>43441</v>
@@ -5416,138 +5428,138 @@
       <c r="L2" s="60"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="87"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="94"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="71"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="73"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="80"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="71"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="73"/>
+      <c r="A5" s="78"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="80"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="71"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="73"/>
+      <c r="A6" s="78"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="80"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="71"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="73"/>
+      <c r="A7" s="78"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
+      <c r="L7" s="80"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="71"/>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="73"/>
+      <c r="A8" s="78"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="79"/>
+      <c r="K8" s="79"/>
+      <c r="L8" s="80"/>
     </row>
     <row r="9" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A9" s="74"/>
-      <c r="B9" s="75"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="75"/>
-      <c r="L9" s="76"/>
+      <c r="A9" s="81"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="82"/>
+      <c r="L9" s="83"/>
     </row>
     <row r="10" spans="1:12" ht="17.25" thickBot="1">
-      <c r="A10" s="102" t="s">
+      <c r="A10" s="112" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="103"/>
-      <c r="C10" s="103"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="104"/>
+      <c r="B10" s="113"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="114"/>
       <c r="G10" s="46" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="20" customFormat="1">
-      <c r="A11" s="90" t="s">
+      <c r="A11" s="97" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="88" t="s">
+      <c r="B11" s="95" t="s">
         <v>88</v>
       </c>
-      <c r="C11" s="88" t="s">
+      <c r="C11" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="106" t="s">
+      <c r="D11" s="95"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="116" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="20" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A12" s="91"/>
-      <c r="B12" s="105"/>
+      <c r="A12" s="98"/>
+      <c r="B12" s="115"/>
       <c r="C12" s="62" t="s">
         <v>65</v>
       </c>
@@ -5560,14 +5572,14 @@
       <c r="F12" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="G12" s="107"/>
+      <c r="G12" s="117"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="42">
         <v>1</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="C13" s="24" t="s">
         <v>91</v>
@@ -5650,11 +5662,21 @@
       <c r="A17" s="56">
         <v>5</v>
       </c>
-      <c r="B17" s="57"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="45"/>
+      <c r="B17" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="F17" s="44" t="s">
+        <v>113</v>
+      </c>
       <c r="G17" s="49"/>
     </row>
     <row r="18" spans="1:7">
@@ -6199,16 +6221,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="95" t="s">
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="102" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="96"/>
-      <c r="F1" s="97"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="104"/>
       <c r="G1" s="40" t="s">
         <v>37</v>
       </c>
@@ -6223,16 +6245,16 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="98" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="99"/>
-      <c r="F2" s="100"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="107"/>
       <c r="G2" s="38"/>
       <c r="H2" s="33">
         <v>43441</v>
@@ -6241,120 +6263,120 @@
       <c r="J2" s="39"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="87"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="94"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="71"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="73"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="80"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="71"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="73"/>
+      <c r="A5" s="78"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="80"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="71"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="73"/>
+      <c r="A6" s="78"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="80"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="71"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="73"/>
+      <c r="A7" s="78"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="80"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="71"/>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="73"/>
+      <c r="A8" s="78"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="80"/>
     </row>
     <row r="9" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A9" s="74"/>
-      <c r="B9" s="75"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="76"/>
+      <c r="A9" s="81"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="83"/>
     </row>
     <row r="10" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A10" s="102" t="s">
+      <c r="A10" s="112" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="103"/>
-      <c r="C10" s="104"/>
+      <c r="B10" s="113"/>
+      <c r="C10" s="114"/>
       <c r="D10" s="46" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="20" customFormat="1" ht="16.149999999999999" customHeight="1">
-      <c r="A11" s="90" t="s">
+      <c r="A11" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="88" t="s">
+      <c r="B11" s="95" t="s">
         <v>109</v>
       </c>
-      <c r="C11" s="109" t="s">
+      <c r="C11" s="119" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="106" t="s">
+      <c r="D11" s="116" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="20" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A12" s="91"/>
-      <c r="B12" s="105"/>
-      <c r="C12" s="110"/>
-      <c r="D12" s="108"/>
+      <c r="A12" s="98"/>
+      <c r="B12" s="115"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="118"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="42">
